--- a/artifacts/recipes/new_data/allrecipescom/healthy/healthy_appetizers.xlsx
+++ b/artifacts/recipes/new_data/allrecipescom/healthy/healthy_appetizers.xlsx
@@ -1,39 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rIdSheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="@"/>
-  </numFmts>
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -41,26 +45,395 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>web-scraper-order</t>
@@ -83,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>card-href</t>
+          <t>recipe_card-href</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -93,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>recipe_details_table</t>
+          <t>recipe_details</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -117,80 +490,48 @@
         </is>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>1699658343-1</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Healthy Appetizers</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>1699658349-2</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/xifnq1cEAAP6xS2aQ5Z7fo3tCt0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3445572-a3599ce9e61246c6b84267f70980a56f.jpg"
@@ -203,59 +544,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/232106/cajun-baked-french-fries/</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Cajun Baked French Fries</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n45 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¼ cup olive oil\n\n\n1 teaspoon garlic powder\n\n\n1 teaspoon onion powder\n\n\n1 teaspoon chili powder\n\n\n1 teaspoon Cajun seasoning\n\n\n1 teaspoon sea salt\n\n\n6 large baking potatoes, sliced into thin wedges"}]</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼ cup olive oil\n\n\n1 teaspoon garlic powder\n\n\n1 teaspoon onion powder\n\n\n1 teaspoon chili powder\n\n\n1 teaspoon Cajun seasoning\n\n\n1 teaspoon sea salt\n\n\n6 large baking potatoes, sliced into thin wedges'}]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 400 degrees F (200 degrees C)."},{"recipe_directions":"Mix olive oil, garlic powder, onion powder, chili powder, Cajun seasoning, and sea salt in a large resealable bag. Add potatoes and toss to evenly coat with seasoned oil. Spread coated potatoes in 1 layer onto a baking sheet."},{"recipe_directions":"Bake in the preheated oven for 35 minutes. Stir potatoes with a spatula and continue cooking until crisp, about 10 more minutes."}]</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Side Dish"},{"recipe_tags":"Fries Recipes"},{"recipe_tags":"French Fries Recipes"},{"recipe_tags":"Baked French Fries"}]</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"369\nCalories\n\n\n9g \nFat\n\n\n66g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>1699658358-3</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/P0gOs527SPb-nKheT98xbr0PF0I=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2822600-c1c25ba054624a73a05d9031fdec60db.jpg"
@@ -268,59 +605,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/24623/potato-logs/</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Potato Logs</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 quarts oil for deep frying\n\n\n4 large potatoes, peeled and chopped\n\n\n1 pinch Italian-style seasoning\n\n\n1  egg yolk\n\n\n1 cup all-purpose flour\n\n\n1  egg white\n\n\n1 cup dry bread crumbs"}]</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 quarts oil for deep frying\n\n\n4 large potatoes, peeled and chopped\n\n\n1 pinch Italian-style seasoning\n\n\n1  egg yolk\n\n\n1 cup all-purpose flour\n\n\n1  egg white\n\n\n1 cup dry bread crumbs'}]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in deep-fryer to 375 degrees F (190 degrees C)."},{"recipe_directions":"Bring a large saucepan of lightly salted water to a boil. Place potatoes in the water and cook until tender but still firm, about 15 minutes. Drain and mash."},{"recipe_directions":"Mix Italian-style seasoning and egg yolk into the mashed potatoes. Allow potato mixture to cool approximately 10 minutes, or until it may be safely handled."},{"recipe_directions":"Place flour, egg white and dry bread crumbs in three separate small bowls. Roll potato mixture into 1 inch logs or balls. Cover in flour, dip in egg white and coat with bread crumbs."},{"recipe_directions":"Carefully lower small batches of the coated potatoes into the deep fryer. Fry until golden brown, about 4 minutes."},{"recipe_directions":"We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. The exact amount may vary depending on cook time and temperature, ingredient density, and the specific type of oil used."}]</t>
         </is>
       </c>
-      <c r="J4" s="1" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Vegetable"}]</t>
         </is>
       </c>
-      <c r="K4" s="1" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"456\nCalories\n\n\n24g \nFat\n\n\n54g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>1699658365-4</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/nU-PcO1RLevErFLFWPmyVnX2Ai8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2095595-de48633739374df4a28c6493eef3e536.jpg"
@@ -333,59 +666,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/109587/tilapia-ceviche/</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Tilapia Ceviche</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 20 mins\n\n\nServings:\n15 \n\n\nYield:\n15 appetizer servings."}]</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"8  tilapia fillets\n\n\n15  limes, juiced\n\n\n1 large tomato, finely diced\n\n\n1 large red onion, finely diced\n\n\n2  cucumbers, peeled, seeded, and finely diced\n\n\n½ bunch finely chopped cilantro\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '8  tilapia fillets\n\n\n15  limes, juiced\n\n\n1 large tomato, finely diced\n\n\n1 large red onion, finely diced\n\n\n2  cucumbers, peeled, seeded, and finely diced\n\n\n½ bunch finely chopped cilantro\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Chop the raw tilapia into small pieces, and place in a large bowl. Pour in enough lime juice to cover the fish."},{"recipe_directions":"Mix the tomato, red onion, and cucumbers into the bowl. Stir in the cilantro. Season with salt and pepper."},{"recipe_directions":"Allow the ceviche to marinate, refrigerated, for at least an hour. Taste for seasoning before serving; add salt and pepper if necessary."}]</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Seafood"},{"recipe_tags":"Ceviche Recipes"}]</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"92\nCalories\n\n\n1g \nFat\n\n\n10g \nCarbs\n\n\n13g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>1699658372-5</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/TBpj3B2hkwDRkrkq-FQ90j17xms=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1896470-fe93bf19c1264078b643d33771fd185c.jpg"
@@ -398,59 +727,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14025/giant-stuffed-mushrooms/</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Giant Stuffed Mushrooms</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Servings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4  large portobello mushrooms\n\n\n2 tablespoons olive oil, divided\n\n\n  salt to taste\n\n\n  ground black pepper to taste\n\n\n1 clove garlic, minced\n\n\n1 cup chopped fresh cilantro\n\n\n1 large carrot, finely chopped\n\n\n1 stalk celery, finely chopped\n\n\n⅔ cup kasha (toasted buckwheat groats)\n\n\n1 ¼ cups water\n\n\n3 tablespoons chopped fresh parsley"}]</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4  large portobello mushrooms\n\n\n2 tablespoons olive oil, divided\n\n\n  salt to taste\n\n\n  ground black pepper to taste\n\n\n1 clove garlic, minced\n\n\n1 cup chopped fresh cilantro\n\n\n1 large carrot, finely chopped\n\n\n1 stalk celery, finely chopped\n\n\n⅔ cup kasha (toasted buckwheat groats)\n\n\n1 ¼ cups water\n\n\n3 tablespoons chopped fresh parsley'}]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 400 degrees F (200 degrees C). Remove the mushroom stems from the caps, and set the stems aside. Place the caps gill-side up on a baking sheet. Drizzle them with 1 tablespoon of the olive oil, and season with salt and pepper. Roast in the preheated oven for 25 minutes."},{"recipe_directions":"Meanwhile, prepare the pilaf stuffing. Chop mushroom stems. Heat the remaining olive oil in a skillet over medium heat. Cook chopped mushroom stems and garlic in oil until soft. Stir in the cilantro, carrot, celery and kasha; cook 2 minutes more. Pour in water. Bring the mixture to a boil, reduce heat to low, and place a lid on the pan. Simmer 20 minutes, or until the kasha is tender. Remove from the heat, and stir in parsley. Season to taste with salt and pepper."},{"recipe_directions":"Stuff the warm mushroom caps with the pilaf, and serve."}]</t>
         </is>
       </c>
-      <c r="J6" s="1" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Vegetable"},{"recipe_tags":"Mushrooms"},{"recipe_tags":"Stuffed Mushroom Recipes"}]</t>
         </is>
       </c>
-      <c r="K6" s="1" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"198\nCalories\n\n\n8g \nFat\n\n\n29g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>1699658379-6</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/RgqlGn_a12gNGTsHI2G5UjtjwWg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/7764653-8b0c9ef259aa4e3f9fa6348758a3d879.jpg"
@@ -463,59 +788,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/264820/spiced-air-fried-chickpeas/</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Spiced Air-Fried Chickpeas</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (15 ounce) can chickpeas, rinsed and drained\n\n\n1 tablespoon nutritional yeast\n\n\n1 tablespoon olive oil\n\n\n1 teaspoon smoked paprika\n\n\n1 teaspoon granulated garlic\n\n\n½ teaspoon salt\n\n\n1 pinch cumin"}]</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (15 ounce) can chickpeas, rinsed and drained\n\n\n1 tablespoon nutritional yeast\n\n\n1 tablespoon olive oil\n\n\n1 teaspoon smoked paprika\n\n\n1 teaspoon granulated garlic\n\n\n½ teaspoon salt\n\n\n1 pinch cumin'}]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Spread chickpeas on a double layer of paper towels, cover with another layer of paper towels, and let dry for 30 minutes."},{"recipe_directions":"Preheat air fryer to 355 degrees F (180 degrees C)."},{"recipe_directions":"Combine dry chickpeas, nutritional yeast, olive oil, smoked paprika, garlic, salt, and cumin in a bowl; toss to coat."},{"recipe_directions":"Add chickpeas to the air fryer and cook until crispy, 20 to 22 minutes, shaking them every 4 minutes."}]</t>
         </is>
       </c>
-      <c r="J7" s="1" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Beans and Peas"}]</t>
         </is>
       </c>
-      <c r="K7" s="1" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"124\nCalories\n\n\n4g \nFat\n\n\n17g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>1699658387-7</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/VixF2UCheFqUemh1As2BS8GuI84=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2490797-jalapeno-salsa-DIZ-4x3-1-c51dfcb60e6a45fbaceca711ce9f17f5.jpg"
@@ -529,59 +850,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E8" s="1" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/218317/jalapeno-salsa/</t>
         </is>
       </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Jalapeno Salsa</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n12 mins\n\n\nTotal Time:\n27 mins\n\n\nServings:\n25 \n\n\nYield:\n3 cups"}]</t>
         </is>
       </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"10  fresh jalapeno peppers\n\n\n2  tomatoes\n\n\n1  white onion, quartered\n\n\n¼ cup chopped fresh cilantro, or more to taste\n\n\n2 cloves garlic, smashed\n\n\n1  lime, juiced\n\n\n1 teaspoon salt\n\n\n1 teaspoon ground black pepper"}]</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '10  fresh jalapeno peppers\n\n\n2  tomatoes\n\n\n1  white onion, quartered\n\n\n¼ cup chopped fresh cilantro, or more to taste\n\n\n2 cloves garlic, smashed\n\n\n1  lime, juiced\n\n\n1 teaspoon salt\n\n\n1 teaspoon ground black pepper'}]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place jalapenos in a saucepan with enough water to cover. Bring to a boil. Simmer until jalapenos soften and begin to lose their shine, about 10 to 12 minutes. Remove the jalapenos with a slotted spoon, chop off the stem, and place them in a blender. Add the tomatoes and boil for 2 to 3 minutes to loosen the skin. Peel the skin from the tomatoes and add tomatoes to the blender."},{"recipe_directions":"Place the onion, cilantro, garlic, lime juice, salt, and black pepper in the blender with the jalapenos and tomatoes. Blend to desired consistency."}]</t>
         </is>
       </c>
-      <c r="J8" s="1" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"},{"recipe_tags":"Salsa Recipes"}]</t>
         </is>
       </c>
-      <c r="K8" s="1" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"7\nCalories\n\n\n0g \nFat\n\n\n2g \nCarbs\n\n\n0g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>1699658393-8</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/qSojQkbAXhFNrkgFH21OTdoxI6g=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1104335-34e4a76f62bb48c198dc3a6e6f739cb5.jpg"
@@ -594,59 +911,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E9" s="1" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/236557/salt-and-vinegar-potato-chips/</t>
         </is>
       </c>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Salt and Vinegar Potato Chips</t>
         </is>
       </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n30 mins\n\n\nAdditional Time:\n 1 hr 30 mins\n\n\nTotal Time:\n 2 hrs 15 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4  potatoes, thinly sliced \n\n\n  cold water to cover\n\n\n3 cups white vinegar\n\n\n1 cup cold water\n\n\n2 cups vegetable oil for frying\n\n\n  salt to taste"}]</t>
-        </is>
-      </c>
-      <c r="I9" s="1" t="inlineStr">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4  potatoes, thinly sliced \n\n\n  cold water to cover\n\n\n3 cups white vinegar\n\n\n1 cup cold water\n\n\n2 cups vegetable oil for frying\n\n\n  salt to taste'}]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Put potato slices in a large bowl. Pour enough cold water over the potatoes to cover completely. Soak potatoes, gently agitating every 10 minutes, for 30 minutes; drain."},{"recipe_directions":"Spread potatoes slices onto paper towel; pat dry with more paper towels."},{"recipe_directions":"Mix vinegar and 1 cup cold water in the large bowl; add potatoes. Cover bowl with plastic wrap and refrigerate for 30 minutes, stir gently, and continue chilling at least 30 minutes more."},{"recipe_directions":"Heat oil in a deep-fryer or large saucepan to 375 degrees F (190 degrees C)."},{"recipe_directions":"Working in batches, use a slotted spoon to remove potato slices from vinegar mixture and gently add to the hot oil. Fry potatoes until golden brown, 5 to 7 minutes per batch. Remove chips to a bowl lined with paper towel to drain."},{"recipe_directions":"Use the paper towel to lift chips from the bowl and put them into a separate bowl; season with salt. Spread the salted chips onto paper towel to further dry and cool completely."},{"recipe_directions":"The nutrition data for this recipe includes the full amount of vinegar. The actual amount consumed will vary."},{"recipe_directions":"We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. Amount will vary depending on cooking time and temperature, ingredient density, and specific type of oil used."}]</t>
         </is>
       </c>
-      <c r="J9" s="1" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Snacks"},{"recipe_tags":"Snack Chip Recipes"},{"recipe_tags":"Potato Chip Recipes"}]</t>
         </is>
       </c>
-      <c r="K9" s="1" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"177\nCalories\n\n\n8g \nFat\n\n\n25g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1699658401-9</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/rZuTBc7cC7mizUYmwrz9ytTv6Ak=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3885541-99afd791b5b24742a2a2983ea60a2054.jpg"
@@ -658,59 +971,55 @@
 12 Healthy Make-Ahead Appetizers to Always Keep on Hand</t>
         </is>
       </c>
-      <c r="E10" s="1" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/gallery/healthy-make-ahead-appetizers/</t>
         </is>
       </c>
-      <c r="F10" s="1" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>12 Healthy Make-Ahead Appetizers to Always Keep on Hand</t>
         </is>
       </c>
-      <c r="G10" s="1" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H10" s="1" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="I10" s="1" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Make-ahead appetizers tend to be full of heavy ingredients like cream cheese and puff pastry (not that there's anything wrong with that!). But, if you're looking for something on the lighter side, it can be difficult to find healthy alternatives. That's why we rounded up our very best healthy appetizers you can prep ahead of time. From nutritious and delicious dips to fresh takes on classic ideas, you'll find something you love in this collection of healthy make-ahead appetizers."},{"recipe_directions":"Make this kid-friendly, make-ahead appetizer with just three ingredients (celery, peanut butter, and raisins) in five minutes. \"Sometimes the simplest things are the best,\" raves reviewer Jillian."},{"recipe_directions":"This healthier, homemade alternative to store-bought tortilla chips will work perfectly with all your favorite make-ahead dips."},{"recipe_directions":"When it comes to healthy apps, you can't go wrong with a basic hummus. You can blend the ingredients a few days before you plan to serve it, so it's the perfect make-ahead appetizer. \"A simple recipe to follow that yields great results,\" says reviewer Angela C."},{"recipe_directions":"These marinated olives keep well in the fridge, so they're great to keep on hand for unexpected company. Serve them on toothpicks for an elegant, healthy make-ahead appetizer."},{"recipe_directions":"Looking for a healthier alternative to French fries? Try these roasted green beans that are simply seasoned with just olive oil, salt, and pepper."},{"recipe_directions":"This make-ahead appetizer — made with crispy corn cereal squares, dried fruit, yogurt-covered raisins, mixed nuts, and banana chips — doesn't contain chocolate or salty snacks, so it's the perfect party mix for your next shindig."},{"recipe_directions":"\"This Greek yogurt ranch dip is super quick and easy and low-fat or fat-free,\" according to recipe creator Lee Crowell. \"Tailor it to your needs by choosing your favorite plain yogurt and dressing mix.\""},{"recipe_directions":"Following the keto diet? You'll love this healthy make-ahead appetizer made with just one low-carb ingredient. All you need to do is bake shredded Cheddar cheese in heaps for less than 10 minutes."},{"recipe_directions":"\"My mom developed this recipe after many attempts at gluten-free meatballs,\" recipe creator Olivia says of this healthy make-ahead appetizer. \"We now have a delicious and healthy way to eat a food we love!\""},{"recipe_directions":"Skewered grapes, apples, strawberries, and pineapples are served with a sweet dipping sauce made by mixing yogurt, applesauce, almond extract, and cinnamon."},{"recipe_directions":"If you're looking for a healthy make-ahead appetizer for brunch, your search ends here. Recipe creator and Allrecipes Allstar France C says cottage cheese keeps these bites creamy instead of rubbery."},{"recipe_directions":"Boiled edamame is served with a simple sauce made with rice vinegar, fresh ginger root, and soy sauce in this healthy appetizer that can be prepped in advance."},{"recipe_directions":"Try one of Our Fanciest Appetizers for Entertaining at Home. Plus, explore our entire collections of Appetizer Recipes and Make-Ahead Recipes."}]</t>
         </is>
       </c>
-      <c r="J10" s="1" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Make-Ahead"}]</t>
         </is>
       </c>
-      <c r="K10" s="1" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>1699658407-10</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ZmoHPt9Ym6l-YNVYPNvnf_4vTk4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1364063-8f54415666324e659ad13fdb2fabd1e9.jpg"
@@ -723,59 +1032,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E11" s="1" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/139917/joses-shrimp-ceviche/</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Jose's Shrimp Ceviche</t>
         </is>
       </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n45 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n20 \n\n\nYield:\n7 cups"}]</t>
         </is>
       </c>
-      <c r="H11" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound peeled and deveined medium shrimp\n\n\n1 cup fresh lime juice\n\n\n10  plum tomatoes, diced\n\n\n1 large yellow onion, diced\n\n\n1  jalapeno pepper, seeded and minced, or to taste\n\n\n2  avocados, diced (Optional)\n\n\n2  ribs celery, diced (Optional)\n\n\n  chopped fresh cilantro to taste\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I11" s="1" t="inlineStr">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound peeled and deveined medium shrimp\n\n\n1 cup fresh lime juice\n\n\n10  plum tomatoes, diced\n\n\n1 large yellow onion, diced\n\n\n1  jalapeno pepper, seeded and minced, or to taste\n\n\n2  avocados, diced (Optional)\n\n\n2  ribs celery, diced (Optional)\n\n\n  chopped fresh cilantro to taste\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place shrimp in a glass bowl and cover with lime juice to marinate (or 'cook') for about 10 minutes, or until they turn pink and opaque. Meanwhile, place the plum tomatoes, onion and jalapeno (and avocados and celery, if using) in a large, non-reactive (stainless steel, glass or plastic) bowl."},{"recipe_directions":"Remove shrimp from lime juice, reserving juice. Dice shrimp and add to the bowl of vegetables. Pour in the remaining lime juice marinade. Add cilantro and salt and pepper to taste. Toss gently to mix."}]</t>
         </is>
       </c>
-      <c r="J11" s="1" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"},{"recipe_tags":"Shrimp Dip Recipes"}]</t>
         </is>
       </c>
-      <c r="K11" s="1" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"73\nCalories\n\n\n4g \nFat\n\n\n6g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>1699658415-11</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/MdA66OhpWqpkylVdBGwCSgaS1gA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/797844-d941fe7db06d41f58191e7ba454d36de.jpg"
@@ -788,59 +1093,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E12" s="1" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14088/fresh-tomato-salsa/</t>
         </is>
       </c>
-      <c r="F12" s="1" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Fresh Tomato Salsa</t>
         </is>
       </c>
-      <c r="G12" s="1" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 10 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H12" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3  tomatoes, chopped\n\n\n½ cup finely diced onion\n\n\n5  serrano chiles, finely chopped\n\n\n½ cup chopped fresh cilantro\n\n\n1 teaspoon salt\n\n\n2 teaspoons lime juice"}]</t>
-        </is>
-      </c>
-      <c r="I12" s="1" t="inlineStr">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3  tomatoes, chopped\n\n\n½ cup finely diced onion\n\n\n5  serrano chiles, finely chopped\n\n\n½ cup chopped fresh cilantro\n\n\n1 teaspoon salt\n\n\n2 teaspoons lime juice'}]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a medium bowl, stir together tomatoes, onion, chili peppers, cilantro, salt, and lime juice. Chill for one hour in the refrigerator before serving."}]</t>
         </is>
       </c>
-      <c r="J12" s="1" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"},{"recipe_tags":"Salsa Recipes"},{"recipe_tags":"Tomato Salsa Recipes"}]</t>
         </is>
       </c>
-      <c r="K12" s="1" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"52\nCalories\n\n\n0g \nFat\n\n\n10g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>1699658422-12</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/SnDYTo4JqU1XDkMTqBjQoKzkB5Q=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(373x467:375x469):format(webp)/1060959-no-cook-applesauce-ReneePaj-4x3-1-8622d012073f4a738b7209a3e8e558d8.jpg"
@@ -854,59 +1155,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E13" s="1" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/223485/no-cook-applesauce/</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>No Cook Applesauce</t>
         </is>
       </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n16 \n\n\nYield:\n16 servings"}]</t>
         </is>
       </c>
-      <c r="H13" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"12  apples - peeled, cored, and chopped\n\n\n1 cup brown sugar\n\n\n1 cup water\n\n\n1 ½ tablespoons lemon juice\n\n\n1 teaspoon ground cinnamon"}]</t>
-        </is>
-      </c>
-      <c r="I13" s="1" t="inlineStr">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '12  apples - peeled, cored, and chopped\n\n\n1 cup brown sugar\n\n\n1 cup water\n\n\n1 ½ tablespoons lemon juice\n\n\n1 teaspoon ground cinnamon'}]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Blend apples, brown sugar, water, lemon juice, and cinnamon in a blender until smooth."}]</t>
         </is>
       </c>
-      <c r="J13" s="1" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Applesauce Recipes"}]</t>
         </is>
       </c>
-      <c r="K13" s="1" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"107\nCalories\n\n\n0g \nFat\n\n\n28g \nCarbs\n\n\n0g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>1699658429-13</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/JSA1wXiAexWaY7a07-zKO2fuuVc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3767820-2b3887ac02d74406af1f23db0d2298ab.jpg"
@@ -919,59 +1216,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E14" s="1" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/246949/hatch-chile-salsa/</t>
         </is>
       </c>
-      <c r="F14" s="1" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Hatch Chile Salsa</t>
         </is>
       </c>
-      <c r="G14" s="1" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n5 mins\n\n\nAdditional Time:\n20 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H14" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"5  Hatch chile peppers, stems removed\n\n\n1 (28 ounce) can diced tomatoes\n\n\n1 (14.5 ounce) can diced tomatoes with roasted garlic\n\n\n½  onion, roughly chopped\n\n\n¼ cup chopped fresh cilantro\n\n\n1 pinch garlic powder, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I14" s="1" t="inlineStr">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '5  Hatch chile peppers, stems removed\n\n\n1 (28 ounce) can diced tomatoes\n\n\n1 (14.5 ounce) can diced tomatoes with roasted garlic\n\n\n½  onion, roughly chopped\n\n\n¼ cup chopped fresh cilantro\n\n\n1 pinch garlic powder, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Set an oven rack about 6 inches from the heat source and preheat the oven's broiler. Line a baking sheet with aluminum foil; place chile peppers onto the foil."},{"recipe_directions":"Cook under the preheated broiler until pepper skins have blackened and blistered, 5 to 8 minutes. Place blackened peppers into a bowl and tightly seal with plastic wrap. Allow peppers to steam as they cool, about 20 minutes. Remove and discard skins."},{"recipe_directions":"Blend roasted chile peppers, both types of diced tomatoes, onion, cilantro, and garlic powder in a food processor or blender until desired consistency is reached."}]</t>
         </is>
       </c>
-      <c r="J14" s="1" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"},{"recipe_tags":"Salsa Recipes"},{"recipe_tags":"Tomato Salsa Recipes"}]</t>
         </is>
       </c>
-      <c r="K14" s="1" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"63\nCalories\n\n\n12g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>1699658436-14</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ymOcpV1NbQdsbwN3aFrUdS55uAg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1259x1079:1261x1081):format(webp)/5478668-okra-patties-Pamplemousse-4x3-1-07e739a157454f1683b2fe9f94556c95.jpg"
@@ -985,59 +1278,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E15" s="1" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/60515/okra-patties/</t>
         </is>
       </c>
-      <c r="F15" s="1" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Okra Patties</t>
         </is>
       </c>
-      <c r="G15" s="1" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H15" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 cups vegetable oil for frying\n\n\n1 pound okra, finely chopped\n\n\n1 cup finely chopped onion\n\n\n1 teaspoon salt\n\n\n¼ teaspoon pepper\n\n\n½ cup water\n\n\n1  egg\n\n\n½ cup all-purpose flour\n\n\n1 teaspoon baking powder\n\n\n½ cup cornmeal"}]</t>
-        </is>
-      </c>
-      <c r="I15" s="1" t="inlineStr">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 cups vegetable oil for frying\n\n\n1 pound okra, finely chopped\n\n\n1 cup finely chopped onion\n\n\n1 teaspoon salt\n\n\n¼ teaspoon pepper\n\n\n½ cup water\n\n\n1  egg\n\n\n½ cup all-purpose flour\n\n\n1 teaspoon baking powder\n\n\n½ cup cornmeal'}]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat 1 inch of oil in a large skillet to 375 degrees F (190 degrees C)."},{"recipe_directions":"In a large bowl, mix together the okra, onion, salt, pepper, water and egg. Combine the flour, baking powder and cornmeal; and stir that into the okra mixture."},{"recipe_directions":"Carefully drop spoonfuls of the okra batter into the hot oil, and fry on each side until golden, about 2 minutes per side. Remove with a slotted spoon, and drain on paper towels."}]</t>
         </is>
       </c>
-      <c r="J15" s="1" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"}]</t>
         </is>
       </c>
-      <c r="K15" s="1" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"224\nCalories\n\n\n12g \nFat\n\n\n25g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>1699658443-15</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D16" s="1" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/C0HVyl2FGBBrMVBjZ9WtwGCWMhA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2024472-89965378884c46cba6401a0eba236500.jpg"
@@ -1050,59 +1339,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E16" s="1" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/241128/kale-chips-in-the-microwave/</t>
         </is>
       </c>
-      <c r="F16" s="1" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Kale Chips in the Microwave</t>
         </is>
       </c>
-      <c r="G16" s="1" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H16" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 bunch flat-leaf kale - ribs trimmed away and discarded and leaves cut into 2-inch pieces\n\n\n1 tablespoon olive oil, or to taste\n\n\n  sea salt to taste"}]</t>
-        </is>
-      </c>
-      <c r="I16" s="1" t="inlineStr">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 bunch flat-leaf kale - ribs trimmed away and discarded and leaves cut into 2-inch pieces\n\n\n1 tablespoon olive oil, or to taste\n\n\n  sea salt to taste'}]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Arrange kale pieces on microwave-safe plates so they do not overlap. Drizzle olive oil over the kale pieces; season with sea salt."},{"recipe_directions":"Cook each plateful of kale in microwave oven until crispy, 2 to 2 1/2 minutes per batch."}]</t>
         </is>
       </c>
-      <c r="J16" s="1" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Snacks"},{"recipe_tags":"Snack Chip Recipes"},{"recipe_tags":"Kale Chip Recipes"}]</t>
         </is>
       </c>
-      <c r="K16" s="1" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"86\nCalories\n\n\n4g \nFat\n\n\n11g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>1699658452-16</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D17" s="1" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/aq_PXS57ozP9nLrjs5EJBTBwNAE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1508x0:1510x2):format(webp)/5326193-f0104cec32cd4792929974b9d694b0b9.jpg"
@@ -1115,59 +1400,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E17" s="1" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/68542/thai-basil-rolls-with-hoisin-peanut-sauce/</t>
         </is>
       </c>
-      <c r="F17" s="1" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Thai Basil Rolls with Hoisin-Peanut Sauce</t>
         </is>
       </c>
-      <c r="G17" s="1" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n12 \n\n\nYield:\n12 rolls"}]</t>
         </is>
       </c>
-      <c r="H17" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ pound medium shrimp\n\n\n½ pound pork loin\n\n\n1 (8 ounce) package rice noodles\n\n\n12  round rice wrapper sheets\n\n\n1 bunch fresh Thai basil - leaves picked from stems\n\n\n1 cup chopped fresh cilantro\n\n\n1 cup chopped fresh mint\n\n\n2 cups bean sprouts"},{"recipe_ingredients":"1 cup hoisin sauce\n\n\n1 tablespoon creamy peanut butter\n\n\n1 tablespoon water\n\n\n  chopped roasted peanuts"}]</t>
-        </is>
-      </c>
-      <c r="I17" s="1" t="inlineStr">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ pound medium shrimp\n\n\n½ pound pork loin\n\n\n1 (8 ounce) package rice noodles\n\n\n12  round rice wrapper sheets\n\n\n1 bunch fresh Thai basil - leaves picked from stems\n\n\n1 cup chopped fresh cilantro\n\n\n1 cup chopped fresh mint\n\n\n2 cups bean sprouts'}, {'recipe_ingredients': '1 cup hoisin sauce\n\n\n1 tablespoon creamy peanut butter\n\n\n1 tablespoon water\n\n\n  chopped roasted peanuts'}]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring a medium stockpot of lightly salted water to a low boil. Cook shrimp 2 to 3 minutes, or until opaque. Drain, allow to cool slightly, and pat dry with paper towel. Peel, devein, and slice in half."},{"recipe_directions":"Bring another stockpot of lightly salted water to a boil. Cook pork at a low boil for approximately 10 minutes, to an internal temperature of 145 degrees F (63 degrees C). Allow to cool, and slice into thin strips."},{"recipe_directions":"Again, bring a stockpot of water to a boil. Cook noodles until tender, stirring occasionally, approximately 7 to 8 minutes. Strain, and rinse to prevent sticking."},{"recipe_directions":"Fill a medium bowl with warm water. Dip each wrapper in water for about 30 seconds until soft and flexible. Lay wrapper on a flat surface, and place 2 basil leaves in center, side by side, about 2 inches from edge of wrapper. Lay 4 to 5 shrimp halves on basil, followed by a small amount of pork, then a small amount of noodles. Sprinkle with cilantro, mint, and top with bean sprouts. Starting at one end, roll the wrapper over once, fold both sides in toward center, and continue rolling as tightly as possible without tearing. The end result should be a roll approximately 1 to 1 1/2 inches thick."},{"recipe_directions":"Warm hoisin sauce, peanut butter, and water in a saucepan over medium-high heat. Bring to a boil, and immediately remove from heat. Garnish sauce with chopped peanuts, if desired, and serve with rolls for dipping."}]</t>
         </is>
       </c>
-      <c r="J17" s="1" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Wraps and Rolls"}]</t>
         </is>
       </c>
-      <c r="K17" s="1" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"195\nCalories\n\n\n4g \nFat\n\n\n29g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>1699658460-17</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D18" s="1" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ZrT4TUgZRbRIjjtGkYAO_9RIvvQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2174193-b18a0bef7b514ab8bae56c93a5c73949.jpg"
@@ -1180,59 +1461,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E18" s="1" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/240250/cauliflower-popcorn/</t>
         </is>
       </c>
-      <c r="F18" s="1" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Cauliflower Popcorn</t>
         </is>
       </c>
-      <c r="G18" s="1" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H18" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 large head cauliflower, broken into small florets\n\n\n1 tablespoon olive oil\n\n\n½ teaspoon garlic salt"}]</t>
-        </is>
-      </c>
-      <c r="I18" s="1" t="inlineStr">
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 large head cauliflower, broken into small florets\n\n\n1 tablespoon olive oil\n\n\n½ teaspoon garlic salt'}]</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 400 degrees F (200 degrees C)."},{"recipe_directions":"Whisk olive oil and garlic salt together in a large bowl; add cauliflower and toss to coat completely. Spread cauliflower out onto a baking sheet."},{"recipe_directions":"Bake in the preheated oven until golden and tender, 15 to 18 minutes."}]</t>
         </is>
       </c>
-      <c r="J18" s="1" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Cauliflower"}]</t>
         </is>
       </c>
-      <c r="K18" s="1" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"83\nCalories\n\n\n4g \nFat\n\n\n11g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>1699658469-18</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D19" s="1" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/CfUpkFwkZqjixvAP63lx6GfaEzk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/225226-e101597978e140c292e4a01e83bad47d.jpg"
@@ -1245,59 +1522,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E19" s="1" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/23953/ants-on-a-log/</t>
         </is>
       </c>
-      <c r="F19" s="1" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Ants on a Log</t>
         </is>
       </c>
-      <c r="G19" s="1" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nTotal Time:\n5 mins\n\n\nServings:\n10 \n\n\nYield:\n10 logs"}]</t>
         </is>
       </c>
-      <c r="H19" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"5 stalks celery\n\n\n½ cup peanut butter\n\n\n¼ cup raisins"}]</t>
-        </is>
-      </c>
-      <c r="I19" s="1" t="inlineStr">
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '5 stalks celery\n\n\n½ cup peanut butter\n\n\n¼ cup raisins'}]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Cut the celery stalks in half. Spread with peanut butter. Sprinkle with raisins."}]</t>
         </is>
       </c>
-      <c r="J19" s="1" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Snacks"},{"recipe_tags":"Kids"},{"recipe_tags":"Quick and Easy"}]</t>
         </is>
       </c>
-      <c r="K19" s="1" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"91\nCalories\n\n\n7g \nFat\n\n\n6g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>1699658476-19</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D20" s="1" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/f9XljQNfTekmBgTHQmGfH-UWcI0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/8185-8f98ce31f2924a22b14b6caef0aee266.jpg"
@@ -1310,59 +1583,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E20" s="1" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/24182/black-bean-salsa/</t>
         </is>
       </c>
-      <c r="F20" s="1" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Black Bean Salsa</t>
         </is>
       </c>
-      <c r="G20" s="1" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nAdditional Time:\n 8 hrs\n\n\nTotal Time:\n 8 hrs 15 mins\n\n\nServings:\n40 \n\n\nYield:\n5 cups"}]</t>
         </is>
       </c>
-      <c r="H20" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 (15 ounce) cans black beans, drained and rinsed\n\n\n1 (11 ounce) can Mexican-style corn, drained\n\n\n2 (10 ounce) cans diced tomatoes with green chile peppers, partially drained\n\n\n2  tomatoes, diced\n\n\n2 bunches green onions, chopped\n\n\n  cilantro leaves, for garnish"}]</t>
-        </is>
-      </c>
-      <c r="I20" s="1" t="inlineStr">
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 (15 ounce) cans black beans, drained and rinsed\n\n\n1 (11 ounce) can Mexican-style corn, drained\n\n\n2 (10 ounce) cans diced tomatoes with green chile peppers, partially drained\n\n\n2  tomatoes, diced\n\n\n2 bunches green onions, chopped\n\n\n  cilantro leaves, for garnish'}]</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large bowl, mix together black beans, Mexican-style corn, diced tomatoes with green chile peppers, tomatoes and green onion stalks. Garnish with desired amount of cilantro leaves. Chill in the refrigerator at least 8 hours, or overnight, before serving."}]</t>
         </is>
       </c>
-      <c r="J20" s="1" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"},{"recipe_tags":"Salsa Recipes"},{"recipe_tags":"Tomato Salsa Recipes"}]</t>
         </is>
       </c>
-      <c r="K20" s="1" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"42\nCalories\n\n\n0g \nFat\n\n\n8g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>1699658483-20</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D21" s="1" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/h0mnUNOevNDHm03YG0f5rVVYDTE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/802026-2fea6665028149f99a46336005dd7b6a.jpg"
@@ -1375,59 +1644,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E21" s="1" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/84860/lomi-lomi/</t>
         </is>
       </c>
-      <c r="F21" s="1" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Lomi Lomi</t>
         </is>
       </c>
-      <c r="G21" s="1" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n12 \n\n\nYield:\n12 servings"}]</t>
         </is>
       </c>
-      <c r="H21" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups diced salted salmon\n\n\n6 medium tomatoes, diced\n\n\n1  white onion, chopped\n\n\n½ cup chopped green onion\n\n\n  sea salt to taste\n\n\n  cayenne pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I21" s="1" t="inlineStr">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups diced salted salmon\n\n\n6 medium tomatoes, diced\n\n\n1  white onion, chopped\n\n\n½ cup chopped green onion\n\n\n  sea salt to taste\n\n\n  cayenne pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a medium bowl, stir together the salted salmon, tomatoes, white onion, green onion, sea salt and cayenne pepper. Chill for at least 30 minutes before serving. Serve chilled."},{"recipe_directions":"Sometimes the salmon is salty enough; taste it first before adding any salt. Additionally, if the fish is excessively salty, you can soak it over night and rinse prior to preparing this dish."}]</t>
         </is>
       </c>
-      <c r="J21" s="1" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Seafood Salad Recipes"},{"recipe_tags":"Salmon Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K21" s="1" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"44\nCalories\n\n\n1g \nFat\n\n\n4g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>1699658490-21</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D22" s="1" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ot0z2ng-KvwdSYkPZNNxj3Faf60=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/588854-274b47807d6a4f09996f6c9a09c77293.jpg"
@@ -1440,59 +1705,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E22" s="1" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/20797/extra-easy-hummus/</t>
         </is>
       </c>
-      <c r="F22" s="1" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Extra Easy Hummus</t>
         </is>
       </c>
-      <c r="G22" s="1" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nTotal Time:\n5 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H22" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (15 ounce) can garbanzo beans, drained, liquid reserved\n\n\n1 clove garlic, crushed\n\n\n2 teaspoons ground cumin\n\n\n½ teaspoon salt\n\n\n1 tablespoon olive oil"}]</t>
-        </is>
-      </c>
-      <c r="I22" s="1" t="inlineStr">
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (15 ounce) can garbanzo beans, drained, liquid reserved\n\n\n1 clove garlic, crushed\n\n\n2 teaspoons ground cumin\n\n\n½ teaspoon salt\n\n\n1 tablespoon olive oil'}]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a blender or food processor combine garbanzo beans, garlic, cumin, salt and olive oil. Blend on low speed, gradually adding reserved bean liquid, until desired consistency is achieved."}]</t>
         </is>
       </c>
-      <c r="J22" s="1" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Snacks"},{"recipe_tags":"Kids"},{"recipe_tags":"Quick and Easy"}]</t>
         </is>
       </c>
-      <c r="K22" s="1" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"118\nCalories\n\n\n4g \nFat\n\n\n17g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="1" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>1699658496-22</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D23" s="1" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/mXpvsLIXoP-SjAq-JJ8VAcGFB4c=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1004999-6d4280ced6e84ec6be9b2c634f1c9664.jpg"
@@ -1505,59 +1766,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E23" s="1" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/228337/cheesy-kale-chips/</t>
         </is>
       </c>
-      <c r="F23" s="1" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Cheesy Kale Chips</t>
         </is>
       </c>
-      <c r="G23" s="1" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n45 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H23" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons extra virgin olive oil\n\n\n1 bunch curly kale, torn\n\n\n½ cup nutritional yeast\n\n\n⅓ teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="I23" s="1" t="inlineStr">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons extra virgin olive oil\n\n\n1 bunch curly kale, torn\n\n\n½ cup nutritional yeast\n\n\n⅓ teaspoon salt'}]</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 200 degrees F (95 degrees C)."},{"recipe_directions":"Drizzle olive oil over the kale in a large bowl and sprinkle with the nutritional yeast and salt. Stir with your hands to coat kale."},{"recipe_directions":"Spread kale onto baking sheets."},{"recipe_directions":"Bake in preheated oven until kale begins to get slightly crisp; rotate racks and flip the chips, and continue baking until completely crisp, 45 to 60 minutes total. Make sure to keep an eye on them to make sure they don't burn; if you notice certain chips ready much sooner than others, take them out."}]</t>
         </is>
       </c>
-      <c r="J23" s="1" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Greens"}]</t>
         </is>
       </c>
-      <c r="K23" s="1" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"111\nCalories\n\n\n6g \nFat\n\n\n11g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="1" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>1699658506-23</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D24" s="1" t="inlineStr">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/NxJUgp4F7QERFpIxMsWBq2hXWzY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/7014643-kale-chips-Gladys78-4x3-1-71d57177bea24e22b2387f13923029e4.jpg"
@@ -1571,59 +1828,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E24" s="1" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/214784/kale-chips/</t>
         </is>
       </c>
-      <c r="F24" s="1" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>Kale Chips</t>
         </is>
       </c>
-      <c r="G24" s="1" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n35 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n2"}]</t>
         </is>
       </c>
-      <c r="H24" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 bunch kale\n\n\n1 tablespoon extra-virgin olive oil, divided\n\n\n1 tablespoon sherry vinegar\n\n\n1 pinch sea salt, to taste"}]</t>
-        </is>
-      </c>
-      <c r="I24" s="1" t="inlineStr">
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 bunch kale\n\n\n1 tablespoon extra-virgin olive oil, divided\n\n\n1 tablespoon sherry vinegar\n\n\n1 pinch sea salt, to taste'}]</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 300 degrees F (150 degrees C)."},{"recipe_directions":"Cut away inner ribs from each kale leaf and discard; tear leaves into pieces of uniform size, about the size of a small potato chip. Wash torn kale pieces and spin dry in a salad spinner or dry with paper towels until very dry."},{"recipe_directions":"Place kale pieces into a large resealable bag. Add about 1/2 of the olive oil; squeeze out air and seal, then massage the bag so oil gets distributed evenly on kale pieces. Add remaining oil and massage the bag more, until all kale pieces are evenly coated with oil. Sprinkle vinegar over the kale leaves, reseal the bag and shake well. Spread the leaves evenly onto a baking sheet."},{"recipe_directions":"Bake in the preheated oven until mostly crisp, about 35 minutes. Season with salt and serve immediately."}]</t>
         </is>
       </c>
-      <c r="J24" s="1" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Snacks"},{"recipe_tags":"Kids"},{"recipe_tags":"Healthy"}]</t>
         </is>
       </c>
-      <c r="K24" s="1" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"174\nCalories\n\n\n8g \nFat\n\n\n23g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="1" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>1699658514-24</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D25" s="1" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/H713YGHa_OivkkyC7aCtkl2-yDs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1151x0:1153x2):format(webp)/5782007-336a1b3c27ff468193ebd2b88c32f14b.jpg"
@@ -1636,59 +1889,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E25" s="1" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/222082/healthier-banana-banana-bread/</t>
         </is>
       </c>
-      <c r="F25" s="1" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Healthier Banana Banana Bread</t>
         </is>
       </c>
-      <c r="G25" s="1" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 1 hr 5 mins\n\n\nTotal Time:\n 1 hr 20 mins\n\n\nServings:\n12 \n\n\nYield:\n1 9x5-inch loaf"}]</t>
         </is>
       </c>
-      <c r="H25" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups all-purpose flour\n\n\n1 teaspoon baking soda\n\n\n¼ teaspoon salt\n\n\n¼ cup butter\n\n\n⅛ cup nonfat plain yogurt\n\n\n¾ cup brown sugar\n\n\n2  eggs, beaten\n\n\n2 ⅓ cups mashed overripe bananas"}]</t>
-        </is>
-      </c>
-      <c r="I25" s="1" t="inlineStr">
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups all-purpose flour\n\n\n1 teaspoon baking soda\n\n\n¼ teaspoon salt\n\n\n¼ cup butter\n\n\n⅛ cup nonfat plain yogurt\n\n\n¾ cup brown sugar\n\n\n2  eggs, beaten\n\n\n2 ⅓ cups mashed overripe bananas'}]</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Lightly grease a 9x5-inch loaf pan."},{"recipe_directions":"Combine flour, baking soda, and salt in a large bowl. Beat butter, yogurt, and brown sugar with an electric mixer in a large bowl until light and fluffy. The mixture should be noticeably lighter in color. Add room-temperature eggs one at a time, allowing each egg to blend into butter mixture before adding the next. Stir in mashed bananas until well blended. Pour banana mixture to flour mixture; stir just to moisten. Transfer batter into prepared loaf pan."},{"recipe_directions":"Bake in preheated oven until a toothpick inserted into center of loaf comes out clean, 60 to 65 minutes. Let bread cool in pan for 10 minutes, then turn out onto wire rack to cool completely."},{"recipe_directions":"This recipe is the healthier version of Banana Banana Bread."}]</t>
         </is>
       </c>
-      <c r="J25" s="1" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Bread"},{"recipe_tags":"Quick Bread Recipes"},{"recipe_tags":"Fruit Bread Recipes"},{"recipe_tags":"Banana Bread"}]</t>
         </is>
       </c>
-      <c r="K25" s="1" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"196\nCalories\n\n\n5g \nFat\n\n\n35g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="1" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>1699658521-25</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D26" s="1" t="inlineStr">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/RkQ2yTC5MtreytFTyW9cknzzP1c=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(719x0:721x2):format(webp)/7309405-242928eb154a47df83c61d3b96aefd56.jpg"
@@ -1701,59 +1950,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E26" s="1" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/214182/shrimp-salsa/</t>
         </is>
       </c>
-      <c r="F26" s="1" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Shrimp Salsa</t>
         </is>
       </c>
-      <c r="G26" s="1" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 20 mins\n\n\nServings:\n12 \n\n\nYield:\n12 servings"}]</t>
         </is>
       </c>
-      <c r="H26" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ pound salad shrimp\n\n\n2  roma (plum) tomatoes, diced\n\n\n½  red onion, diced\n\n\n¼ cup minced cilantro\n\n\n¼ cup fresh lime juice\n\n\n1 teaspoon salt\n\n\n1 teaspoon freshly ground black pepper\n\n\n1 clove garlic, minced"}]</t>
-        </is>
-      </c>
-      <c r="I26" s="1" t="inlineStr">
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ pound salad shrimp\n\n\n2  roma (plum) tomatoes, diced\n\n\n½  red onion, diced\n\n\n¼ cup minced cilantro\n\n\n¼ cup fresh lime juice\n\n\n1 teaspoon salt\n\n\n1 teaspoon freshly ground black pepper\n\n\n1 clove garlic, minced'}]</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Stir the salad shrimp, tomatoes, onion, cilantro, lime juice, salt, pepper, and garlic together in a large glass bowl. Cover with plastic wrap and refrigerate until the flavors combine, at least 1 hour. Serve cold."}]</t>
         </is>
       </c>
-      <c r="J26" s="1" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"},{"recipe_tags":"Shrimp Dip Recipes"}]</t>
         </is>
       </c>
-      <c r="K26" s="1" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"26\nCalories\n\n\n0g \nFat\n\n\n2g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="1" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>1699658527-26</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D27" s="1" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/BCIA88ce78nI9U6M9FCsNtWMvPU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3341799-cajun-potato-wedges-Anika-Brooks-4x3-1-e04b36426b074b56b68450a6c5cc94e4.jpg"
@@ -1767,59 +2012,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E27" s="1" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/223408/cajun-potato-wedges/</t>
         </is>
       </c>
-      <c r="F27" s="1" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Cajun Potato Wedges</t>
         </is>
       </c>
-      <c r="G27" s="1" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n45 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H27" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4  baking potatoes\n\n\n3 tablespoons olive oil\n\n\n1 teaspoon minced fresh garlic\n\n\n¼ teaspoon salt\n\n\n¼ teaspoon ground black pepper\n\n\n1 ½ teaspoons onion powder\n\n\n½ teaspoon paprika"}]</t>
-        </is>
-      </c>
-      <c r="I27" s="1" t="inlineStr">
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4  baking potatoes\n\n\n3 tablespoons olive oil\n\n\n1 teaspoon minced fresh garlic\n\n\n¼ teaspoon salt\n\n\n¼ teaspoon ground black pepper\n\n\n1 ½ teaspoons onion powder\n\n\n½ teaspoon paprika'}]</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 425 degrees F (220 degrees C). Grease a baking sheet."},{"recipe_directions":"Cut each potato into 12 wedges; place in a large bowl. Toss potatoes with olive oil, garlic, salt, pepper, onion powder, and paprika. Arrange in a single layer on prepared baking sheet."},{"recipe_directions":"Bake in preheated oven for 20 minutes. Turn potatoes over and continue baking until golden and crisp, 25 to 30 minutes longer."}]</t>
         </is>
       </c>
-      <c r="J27" s="1" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"}]</t>
         </is>
       </c>
-      <c r="K27" s="1" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"258\nCalories\n\n\n10g \nFat\n\n\n38g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="1" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>1699658535-27</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D28" s="1" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/PMnMLIqftCclPg57xRUn85xovIA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(399x0:401x2):format(webp)/1554101-smoky-four-pepper-salsa-Ahunani71-4x3-1-2be568fe523942aeb468e156bea744ae.jpg"
@@ -1833,59 +2074,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E28" s="1" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/140294/smoky-four-pepper-salsa/</t>
         </is>
       </c>
-      <c r="F28" s="1" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Smoky Four-Pepper Salsa</t>
         </is>
       </c>
-      <c r="G28" s="1" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n12 \n\n\nYield:\n3 cups"}]</t>
         </is>
       </c>
-      <c r="H28" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"8  ripe plum tomatoes\n\n\n1 tablespoon vegetable oil\n\n\n4  poblano peppers\n\n\n4  Anaheim chile peppers\n\n\n1  jalapeno chile pepper, or more to taste\n\n\n1 large green bell pepper\n\n\n2 tablespoons chopped cilantro leaves\n\n\n2 tablespoons white vinegar\n\n\n¼  onion\n\n\n2 cloves garlic\n\n\n2 teaspoons salt\n\n\n¼ teaspoon mesquite flavored liquid smoke concentrate (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I28" s="1" t="inlineStr">
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '8  ripe plum tomatoes\n\n\n1 tablespoon vegetable oil\n\n\n4  poblano peppers\n\n\n4  Anaheim chile peppers\n\n\n1  jalapeno chile pepper, or more to taste\n\n\n1 large green bell pepper\n\n\n2 tablespoons chopped cilantro leaves\n\n\n2 tablespoons white vinegar\n\n\n¼  onion\n\n\n2 cloves garlic\n\n\n2 teaspoons salt\n\n\n¼ teaspoon mesquite flavored liquid smoke concentrate (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat an outdoor grill for medium heat."},{"recipe_directions":"Rub tomatoes with oil and grill for 10 minutes, turn. Place poblano, Anaheim, jalapeno chiles, and the green pepper on the grill. Grill 5 to 7 minutes per side, being careful not to let them burn. The skins should blister and brown. Remove tomatoes to a separate bowl. Place the chiles and pepper in an airtight container to let them steam while they cool so they're easier to peel."},{"recipe_directions":"Peel tomatoes and drain excess liquid. Peel and seed peppers."},{"recipe_directions":"Place the tomatoes, chiles, green pepper, cilantro, vinegar, onion, garlic, and salt in the container of a food processor. Pulse 4 or 5 times. Add liquid smoke and more jalapenos if desired. Pulse until salsa is as chunky or smooth as you like."}]</t>
         </is>
       </c>
-      <c r="J28" s="1" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"},{"recipe_tags":"Salsa Recipes"},{"recipe_tags":"Tomato Salsa Recipes"}]</t>
         </is>
       </c>
-      <c r="K28" s="1" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"38\nCalories\n\n\n2g \nFat\n\n\n6g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="1" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>1699658545-28</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D29" s="1" t="inlineStr">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/KnUPTRCTfe492THZmVFl3Uyo7MY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/8978236-espinacas-con-garbanzos-spinach-with-garbanzo-beans-The-Soup-Spoon-1x1-1-60fa4d24656e4c7996dcd57dc6e4501d.jpg"
@@ -1899,59 +2136,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E29" s="1" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/161535/espinacas-con-garbanzos-spinach-with-garbanzo-beans/</t>
         </is>
       </c>
-      <c r="F29" s="1" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>Espinacas con Garbanzos (Spinach with Garbanzo Beans)</t>
         </is>
       </c>
-      <c r="G29" s="1" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H29" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon extra-virgin olive oil\n\n\n4 cloves garlic, minced\n\n\n½  onion, diced\n\n\n1 (10 ounce) box frozen chopped spinach, thawed and drained well\n\n\n1 (12 ounce) can garbanzo beans, drained\n\n\n½ teaspoon cumin\n\n\n½ teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="I29" s="1" t="inlineStr">
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon extra-virgin olive oil\n\n\n4 cloves garlic, minced\n\n\n½  onion, diced\n\n\n1 (10 ounce) box frozen chopped spinach, thawed and drained well\n\n\n1 (12 ounce) can garbanzo beans, drained\n\n\n½ teaspoon cumin\n\n\n½ teaspoon salt'}]</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat the olive oil in a skillet over medium-low heat. Cook the garlic and onion in the oil until translucent, about 5 minutes. Stir in the spinach, garbanzo beans, cumin, and salt. Use your stirring spoon to lightly mash the beans as the mixture cooks. Allow to cook until thoroughly heated."}]</t>
         </is>
       </c>
-      <c r="J29" s="1" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Greens"}]</t>
         </is>
       </c>
-      <c r="K29" s="1" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"169\nCalories\n\n\n5g \nFat\n\n\n26g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="1" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>1699658551-29</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D30" s="1" t="inlineStr">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/UQoihPcgDTaoSGIFf5zfC3gC8yc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2437817-pickled-daikon-radish-and-carrot-Allrecipes-Magazine-4x3-1-83d3dab1f5034f758f576362922f4d52.jpg"
@@ -1965,59 +2198,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E30" s="1" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/214722/pickled-daikon-radish-and-carrot/</t>
         </is>
       </c>
-      <c r="F30" s="1" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>Pickled Daikon Radish and Carrot</t>
         </is>
       </c>
-      <c r="G30" s="1" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nAdditional Time:\n 5 hrs\n\n\nTotal Time:\n 5 hrs 20 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H30" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup distilled white vinegar\n\n\n¼ cup white sugar\n\n\n1 small carrot, peeled and cut into matchsticks\n\n\n1  daikon radish, peeled and cut into matchsticks\n\n\n2 tablespoons chopped fresh cilantro\n\n\n1  Thai chile pepper, seeded and chopped"}]</t>
-        </is>
-      </c>
-      <c r="I30" s="1" t="inlineStr">
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup distilled white vinegar\n\n\n¼ cup white sugar\n\n\n1 small carrot, peeled and cut into matchsticks\n\n\n1  daikon radish, peeled and cut into matchsticks\n\n\n2 tablespoons chopped fresh cilantro\n\n\n1  Thai chile pepper, seeded and chopped'}]</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat vinegar and sugar in a saucepan over low heat until sugar is dissolved. Remove from heat, and refrigerate to cool. Place daikon and carrot in a glass jar with the cilantro and chile peppers. Pour the cooled vinegar mixture over, submerging the vegetables. Cover and refrigerate for at least 4 hours, or overnight."}]</t>
         </is>
       </c>
-      <c r="J30" s="1" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Carrots"}]</t>
         </is>
       </c>
-      <c r="K30" s="1" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"70\nCalories\n\n\n0g \nFat\n\n\n17g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="1" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>1699658558-30</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C31" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D31" s="1" t="inlineStr">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/SVrthKI33549nrzs9J8iKph_Yng=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/9168851-a5af4d1fe07343d9a8429413fd1bea69.jpg"
@@ -2030,59 +2259,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E31" s="1" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/21108/oatmeal-whole-wheat-quick-bread/</t>
         </is>
       </c>
-      <c r="F31" s="1" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>Oatmeal Whole Wheat Quick Bread</t>
         </is>
       </c>
-      <c r="G31" s="1" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n12 \n\n\nYield:\n1 loaf"}]</t>
         </is>
       </c>
-      <c r="H31" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup rolled oats\n\n\n1 cup whole wheat flour\n\n\n2 teaspoons baking powder\n\n\n½ teaspoon salt\n\n\n1 ½ tablespoons honey\n\n\n1 tablespoon vegetable oil\n\n\n1 cup milk"}]</t>
-        </is>
-      </c>
-      <c r="I31" s="1" t="inlineStr">
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup rolled oats\n\n\n1 cup whole wheat flour\n\n\n2 teaspoons baking powder\n\n\n½ teaspoon salt\n\n\n1 ½ tablespoons honey\n\n\n1 tablespoon vegetable oil\n\n\n1 cup milk'}]</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 450 degrees F (230 degrees C)."},{"recipe_directions":"Grind oatmeal in a food processor or blender. In a large bowl, combine oatmeal, flour, baking powder and salt. In a separate bowl, dissolve honey in vegetable oil then stir in the milk. Combine both mixtures and stir until a soft dough is formed. Form the dough into a ball and place on a lightly oiled baking sheet."},{"recipe_directions":"Bake in preheated oven for about 20 minutes, or until bottom of loaf sounds hollow when tapped."}]</t>
         </is>
       </c>
-      <c r="J31" s="1" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Quick Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K31" s="1" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"88\nCalories\n\n\n2g \nFat\n\n\n15g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="1" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>1699658564-31</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C32" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D32" s="1" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/IVtVZ45HzZiUUQhL7NWYI6cFB0Q=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4194488-ea42e809dcf54faa80a167e890f59833.jpg"
@@ -2095,59 +2320,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E32" s="1" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/230466/savory-pumpkin-hummus/</t>
         </is>
       </c>
-      <c r="F32" s="1" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>Savory Pumpkin Hummus</t>
         </is>
       </c>
-      <c r="G32" s="1" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 15 mins\n\n\nServings:\n16 \n\n\nYield:\n16 servings"}]</t>
         </is>
       </c>
-      <c r="H32" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons lemon juice\n\n\n2 tablespoons tahini\n\n\n3 cloves garlic\n\n\n¾ teaspoon salt\n\n\n2 (15 ounce) cans garbanzo beans, drained\n\n\n2 teaspoons extra-virgin olive oil\n\n\n1 (15 ounce) can pumpkin puree\n\n\n1 teaspoon ground cumin\n\n\n½ teaspoon cayenne pepper\n\n\n¼ cup toasted pumpkin seed kernels, or more to taste\n\n\n1 pinch paprika"}]</t>
-        </is>
-      </c>
-      <c r="I32" s="1" t="inlineStr">
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons lemon juice\n\n\n2 tablespoons tahini\n\n\n3 cloves garlic\n\n\n¾ teaspoon salt\n\n\n2 (15 ounce) cans garbanzo beans, drained\n\n\n2 teaspoons extra-virgin olive oil\n\n\n1 (15 ounce) can pumpkin puree\n\n\n1 teaspoon ground cumin\n\n\n½ teaspoon cayenne pepper\n\n\n¼ cup toasted pumpkin seed kernels, or more to taste\n\n\n1 pinch paprika'}]</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Pulse lemon juice, tahini, garlic, and salt together in a food processor or blender until smooth. Add garbanzo beans and olive oil and pulse until smooth. Add pumpkin, cumin, and cayenne pepper; process until well blended. Transfer hummus to a container with a lid and refrigerate at least 2 hours."},{"recipe_directions":"Fold pumpkin seeds into hummus; garnish with paprika."}]</t>
         </is>
       </c>
-      <c r="J32" s="1" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"},{"recipe_tags":"Hummus Recipes"}]</t>
         </is>
       </c>
-      <c r="K32" s="1" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"81\nCalories\n\n\n3g \nFat\n\n\n11g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="1" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>1699658571-32</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C33" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D33" s="1" t="inlineStr">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ih-XtwdOUa-ehPID5LGL3cEnADI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/5847841-19f4f4602c3d49babd8c50aaa364c6a6.jpg"
@@ -2160,59 +2381,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E33" s="1" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/268473/actifried-chicken-wings/</t>
         </is>
       </c>
-      <c r="F33" s="1" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>ActiFried Chicken Wings</t>
         </is>
       </c>
-      <c r="G33" s="1" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n12 mins\n\n\nTotal Time:\n17 mins\n\n\nServings:\n8 \n\n\nYield:\n1 kilogram wings"}]</t>
         </is>
       </c>
-      <c r="H33" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 kg chicken wings\n\n\n  Salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I33" s="1" t="inlineStr">
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 kg chicken wings\n\n\n  Salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Put the chicken wings in the ActiFry. Close the lid."},{"recipe_directions":"Leave to cook for 12 minutes. Add salt and pepper to taste."},{"recipe_directions":"If you wish to add a sauce (barbecue) or spices (paprika, Cajun, etc), add 1 or 2 ActiFry spoons 5 minutes before the end of cooking time."}]</t>
         </is>
       </c>
-      <c r="J33" s="1" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Meat and Poultry"},{"recipe_tags":"Chicken"}]</t>
         </is>
       </c>
-      <c r="K33" s="1" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"252\nCalories\n\n\n18g \nFat\n\n\n21g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="1" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>1699658577-33</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C34" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D34" s="1" t="inlineStr">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/FTQYWqq6rY5cYWApvF7GqjtwtOA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3783957-be220865b9f444279b1d1c55a7879ec7.jpg"
@@ -2225,59 +2442,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E34" s="1" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/215631/fresh-mango-salsa/</t>
         </is>
       </c>
-      <c r="F34" s="1" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>Fresh Mango Salsa</t>
         </is>
       </c>
-      <c r="G34" s="1" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 20 mins\n\n\nServings:\n40 \n\n\nYield:\n5 cups"}]</t>
         </is>
       </c>
-      <c r="H34" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups diced Roma tomatoes \n\n\n1 ½ cups diced mango\n\n\n½ cup diced onion\n\n\n1 teaspoon white sugar\n\n\n½ cup chopped fresh cilantro\n\n\n2 tablespoons fresh lime juice\n\n\n1 tablespoon cider vinegar\n\n\n½ teaspoon salt\n\n\n½ teaspoon black pepper\n\n\n2 cloves garlic, minced"}]</t>
-        </is>
-      </c>
-      <c r="I34" s="1" t="inlineStr">
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups diced Roma tomatoes \n\n\n1 ½ cups diced mango\n\n\n½ cup diced onion\n\n\n1 teaspoon white sugar\n\n\n½ cup chopped fresh cilantro\n\n\n2 tablespoons fresh lime juice\n\n\n1 tablespoon cider vinegar\n\n\n½ teaspoon salt\n\n\n½ teaspoon black pepper\n\n\n2 cloves garlic, minced'}]</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Stir the tomatoes, mango, onion, sugar, cilantro, lime juice, cider vinegar, salt, pepper, and garlic together in a bowl; refrigerate 1 hour before serving."}]</t>
         </is>
       </c>
-      <c r="J34" s="1" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"},{"recipe_tags":"Salsa Recipes"},{"recipe_tags":"Mango Salsa Recipes"}]</t>
         </is>
       </c>
-      <c r="K34" s="1" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"8\nCalories\n\n\n2g \nCarbs\n\n\n0g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="1" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>1699658583-34</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C35" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D35" s="1" t="inlineStr">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ezsSVe7CHt1nmaLBG3woC5Qy1IE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/1009871-dark-rye-bread-Moxie-4x3-1-8e5ba98fe7c549d188977f687a7f8e8b.jpg"
@@ -2291,59 +2504,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E35" s="1" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/7117/dark-rye-bread/</t>
         </is>
       </c>
-      <c r="F35" s="1" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>Dark Rye Bread</t>
         </is>
       </c>
-      <c r="G35" s="1" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Servings:\n12 \n\n\nYield:\n1 - 1 1/2 pound loaf"}]</t>
         </is>
       </c>
-      <c r="H35" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ⅛ cups water\n\n\n2 tablespoons molasses\n\n\n1 tablespoon vegetable oil\n\n\n1 teaspoon salt\n\n\n2 cups all-purpose flour\n\n\n1 ½ cups rye flour\n\n\n3 tablespoons packed brown sugar\n\n\n1 tablespoon unsweetened cocoa powder\n\n\n¾ teaspoon caraway seed\n\n\n2 teaspoons bread machine yeast"}]</t>
-        </is>
-      </c>
-      <c r="I35" s="1" t="inlineStr">
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ⅛ cups water\n\n\n2 tablespoons molasses\n\n\n1 tablespoon vegetable oil\n\n\n1 teaspoon salt\n\n\n2 cups all-purpose flour\n\n\n1 ½ cups rye flour\n\n\n3 tablespoons packed brown sugar\n\n\n1 tablespoon unsweetened cocoa powder\n\n\n¾ teaspoon caraway seed\n\n\n2 teaspoons bread machine yeast'}]</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place ingredients in the pan of the bread machine in the order recommended by the manufacturer."},{"recipe_directions":"Select the Basic cycle, and press Start."}]</t>
         </is>
       </c>
-      <c r="J35" s="1" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Bread"},{"recipe_tags":"Yeast Bread Recipes"},{"recipe_tags":"Whole Grain Bread Recipes"},{"recipe_tags":"Rye Bread"}]</t>
         </is>
       </c>
-      <c r="K35" s="1" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"159\nCalories\n\n\n2g \nFat\n\n\n33g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="1" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>1699658590-35</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C36" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D36" s="1" t="inlineStr">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/0NNYW5IYDqu46EF28gT3LzlBwfw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1131887-391a0d9a9489460da4e1b290e92cba10.jpg"
@@ -2356,59 +2565,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E36" s="1" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/81298/playgroup-granola-bars/</t>
         </is>
       </c>
-      <c r="F36" s="1" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>Playgroup Granola Bars</t>
         </is>
       </c>
-      <c r="G36" s="1" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n35 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n24 \n\n\nYield:\n24 granola bars"}]</t>
         </is>
       </c>
-      <c r="H36" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups rolled oats\n\n\n¾ cup packed brown sugar\n\n\n½ cup wheat germ\n\n\n¾ teaspoon ground cinnamon\n\n\n1 cup all-purpose flour\n\n\n¾ cup raisins (Optional)\n\n\n¾ teaspoon salt\n\n\n½ cup honey\n\n\n1  egg, beaten\n\n\n½ cup vegetable oil\n\n\n2 teaspoons vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="I36" s="1" t="inlineStr">
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups rolled oats\n\n\n¾ cup packed brown sugar\n\n\n½ cup wheat germ\n\n\n¾ teaspoon ground cinnamon\n\n\n1 cup all-purpose flour\n\n\n¾ cup raisins (Optional)\n\n\n¾ teaspoon salt\n\n\n½ cup honey\n\n\n1  egg, beaten\n\n\n½ cup vegetable oil\n\n\n2 teaspoons vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Generously grease a 9x13 inch baking pan."},{"recipe_directions":"In a large bowl, mix together the oats, brown sugar, wheat germ, cinnamon, flour, raisins and salt. Make a well in the center, and pour in the honey, egg, oil and vanilla. Mix well using your hands. Pat the mixture evenly into the prepared pan."},{"recipe_directions":"Bake for 30 to 35 minutes in the preheated oven, until the bars begin to turn golden at the edges. Cool for 5 minutes, then cut into bars while still warm. Do not allow the bars to cool completely before cutting, or they will be too hard to cut."}]</t>
         </is>
       </c>
-      <c r="J36" s="1" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Snacks"},{"recipe_tags":"Kids"},{"recipe_tags":"Healthy"}]</t>
         </is>
       </c>
-      <c r="K36" s="1" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"161\nCalories\n\n\n6g \nFat\n\n\n27g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="1" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>1699658596-36</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C37" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D37" s="1" t="inlineStr">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/3M03hv_F3wYQn4ioOcSalYgmD8w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/9260595-00b976ebc08d44b8bd8227b4c621a42a.jpg"
@@ -2421,59 +2626,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E37" s="1" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14860/roasted-garlic/</t>
         </is>
       </c>
-      <c r="F37" s="1" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>Roasted Garlic</t>
         </is>
       </c>
-      <c r="G37" s="1" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 5 mins\n\n\nServings:\n15 \n\n\nYield:\n15 servings"}]</t>
         </is>
       </c>
-      <c r="H37" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"10 medium heads garlic\n\n\n3 tablespoons olive oil"}]</t>
-        </is>
-      </c>
-      <c r="I37" s="1" t="inlineStr">
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '10 medium heads garlic\n\n\n3 tablespoons olive oil'}]</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 400 degrees F (200 degrees C)."},{"recipe_directions":"Arrange heads of garlic on a baking sheet. Sprinkle garlic with olive oil. Bake for 40 minutes to 1 hour, when the garlic is soft and squeezable, it is ready. Remove, let cool, and serve."}]</t>
         </is>
       </c>
-      <c r="J37" s="1" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"}]</t>
         </is>
       </c>
-      <c r="K37" s="1" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"80\nCalories\n\n\n3g \nFat\n\n\n12g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="1" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>1699658604-37</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C38" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D38" s="1" t="inlineStr">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/p_TuByASxzSrtlKkOAtMSXrPslI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/65513-d1cc7324e6fc46018a649737deca0069.jpg"
@@ -2486,59 +2687,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E38" s="1" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/21085/jezebel-sauce/</t>
         </is>
       </c>
-      <c r="F38" s="1" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>Jezebel Sauce</t>
         </is>
       </c>
-      <c r="G38" s="1" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nAdditional Time:\n 8 hrs\n\n\nTotal Time:\n 8 hrs 15 mins\n\n\nServings:\n24 \n\n\nYield:\n3 cups"}]</t>
         </is>
       </c>
-      <c r="H38" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (10 ounce) jar apple jelly\n\n\n1 (10 ounce) jar pineapple fruit preserves\n\n\n1 (8 ounce) jar prepared horseradish\n\n\n1 tablespoon ground dry mustard\n\n\n1 teaspoon cracked black pepper"}]</t>
-        </is>
-      </c>
-      <c r="I38" s="1" t="inlineStr">
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (10 ounce) jar apple jelly\n\n\n1 (10 ounce) jar pineapple fruit preserves\n\n\n1 (8 ounce) jar prepared horseradish\n\n\n1 tablespoon ground dry mustard\n\n\n1 teaspoon cracked black pepper'}]</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a small bowl, mix together apple jelly, pineapple fruit preserves, prepared horseradish, ground dry mustard and cracked black pepper. Cover and refrigerate 8 hours, or overnight, before serving."}]</t>
         </is>
       </c>
-      <c r="J38" s="1" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Spicy"}]</t>
         </is>
       </c>
-      <c r="K38" s="1" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"68\nCalories\n\n\n0g \nFat\n\n\n17g \nCarbs\n\n\n0g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="1" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>1699658611-38</t>
         </is>
       </c>
-      <c r="B39" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C39" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D39" s="1" t="inlineStr">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/tx5G0AIE020neN5ABR7PFLADbIQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1307867-febcfd1d26c347df940c5a3fe9baadae.jpg"
@@ -2551,59 +2748,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E39" s="1" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/219456/healthier-buffalo-chicken-dip/</t>
         </is>
       </c>
-      <c r="F39" s="1" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>Healthier Buffalo Chicken Dip</t>
         </is>
       </c>
-      <c r="G39" s="1" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n40 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n40 \n\n\nYield:\n5 cups"}]</t>
         </is>
       </c>
-      <c r="H39" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 (10 ounce) cans natural chunk chicken, drained\n\n\n¾ cup hot pepper sauce (such as Frank's RedHot)\n\n\n2 (8 ounce) packages reduced-fat cream cheese, softened\n\n\n1 cup light ranch dressing\n\n\n1 cup shredded reduced-fat Cheddar cheese, divided\n\n\n1 bunch celery, cleaned and cut into 4-inch pieces\n\n\n8 ounces multigrain crackers"}]</t>
-        </is>
-      </c>
-      <c r="I39" s="1" t="inlineStr">
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': "2 (10 ounce) cans natural chunk chicken, drained\n\n\n¾ cup hot pepper sauce (such as Frank's RedHot)\n\n\n2 (8 ounce) packages reduced-fat cream cheese, softened\n\n\n1 cup light ranch dressing\n\n\n1 cup shredded reduced-fat Cheddar cheese, divided\n\n\n1 bunch celery, cleaned and cut into 4-inch pieces\n\n\n8 ounces multigrain crackers"}]</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat chicken and hot sauce in a skillet over medium heat until heated through, about 5 minutes. Stir in cream cheese and ranch dressing; cook and stir until well blended and warm, 5 to 7 minutes. Mix in 1/2 of the Cheddar."},{"recipe_directions":"Transfer mixture to a slow cooker. Sprinkle remaining Cheddar over top. Cover and cook on Low until hot and bubbly, about 30 minutes."},{"recipe_directions":"Serve with celery sticks and crackers."},{"recipe_directions":"This recipe is a healthier version of Buffalo Chicken Dip."}]</t>
         </is>
       </c>
-      <c r="J39" s="1" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"},{"recipe_tags":"Cheese Dips and Spreads Recipes"}]</t>
         </is>
       </c>
-      <c r="K39" s="1" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"78\nCalories\n\n\n5g \nFat\n\n\n6g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="1" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>1699658620-39</t>
         </is>
       </c>
-      <c r="B40" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C40" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D40" s="1" t="inlineStr">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/rXyftBURtZOc2HMq8f67tSl4UaE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(639x0:641x2):format(webp)/image-92-af71d99a078b465083be03764e773698.jpg"
@@ -2617,59 +2810,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E40" s="1" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/52635/low-fat-blueberry-bran-muffins/</t>
         </is>
       </c>
-      <c r="F40" s="1" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>Low-Fat Blueberry Bran Muffins</t>
         </is>
       </c>
-      <c r="G40" s="1" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n12 \n\n\nYield:\n12 muffins"}]</t>
         </is>
       </c>
-      <c r="H40" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ cups wheat bran\n\n\n1 cup nonfat milk\n\n\n½ cup unsweetened applesauce\n\n\n1  egg\n\n\n⅔ cup brown sugar\n\n\n½ teaspoon vanilla extract\n\n\n½ cup all-purpose flour\n\n\n½ cup whole wheat flour\n\n\n1 teaspoon baking soda\n\n\n1 teaspoon baking powder\n\n\n½ teaspoon salt\n\n\n1 cup blueberries"}]</t>
-        </is>
-      </c>
-      <c r="I40" s="1" t="inlineStr">
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups wheat bran\n\n\n1 cup nonfat milk\n\n\n½ cup unsweetened applesauce\n\n\n1  egg\n\n\n⅔ cup brown sugar\n\n\n½ teaspoon vanilla extract\n\n\n½ cup all-purpose flour\n\n\n½ cup whole wheat flour\n\n\n1 teaspoon baking soda\n\n\n1 teaspoon baking powder\n\n\n½ teaspoon salt\n\n\n1 cup blueberries'}]</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 375 degrees F (190 degrees C). Grease muffin cups or use paper muffin liners. Mix together wheat bran and milk, and let stand for 10 minutes."},{"recipe_directions":"In a large bowl, mix together applesauce, egg, brown sugar, and vanilla. Beat in bran mixture. Sift together all-purpose flour, whole wheat flour, baking soda, baking powder, and salt. Stir into bran mixture until just blended. Fold in blueberries. Scoop into muffin cups."},{"recipe_directions":"Bake in preheated oven for 15 to 20 minutes, or until tops spring back when lightly tapped."}]</t>
         </is>
       </c>
-      <c r="J40" s="1" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Bread"},{"recipe_tags":"Quick Bread Recipes"},{"recipe_tags":"Muffin Recipes"},{"recipe_tags":"Whole Wheat Muffin Recipes"}]</t>
         </is>
       </c>
-      <c r="K40" s="1" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"123\nCalories\n\n\n1g \nFat\n\n\n28g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="1" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>1699658626-40</t>
         </is>
       </c>
-      <c r="B41" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C41" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D41" s="1" t="inlineStr">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/lFzqGrxI3nfI7IwKddFHzjs_GNk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3385720-1a560ec3f49241969c16bede3aeca447.jpg"
@@ -2682,59 +2871,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E41" s="1" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/246372/perfectly-dry-roasted-chickpeas/</t>
         </is>
       </c>
-      <c r="F41" s="1" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>Perfectly Dry Roasted Chickpeas</t>
         </is>
       </c>
-      <c r="G41" s="1" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n40 mins\n\n\nAdditional Time:\n 2 hrs 45 mins\n\n\nTotal Time:\n 3 hrs 30 mins\n\n\nServings:\n4 \n\n\nYield:\n2 cups"}]</t>
         </is>
       </c>
-      <c r="H41" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (15 ounce) can chickpeas (garbanzo beans), drained and rinsed\n\n\n1 teaspoon mixed spice\n\n\n  sea salt to taste"}]</t>
-        </is>
-      </c>
-      <c r="I41" s="1" t="inlineStr">
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (15 ounce) can chickpeas (garbanzo beans), drained and rinsed\n\n\n1 teaspoon mixed spice\n\n\n  sea salt to taste'}]</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Spread chickpeas on paper towels; allow to air dry completely, about 45 minutes."},{"recipe_directions":"Preheat oven to 400 degrees F (200 degrees C). Line a baking sheet with parchment paper."},{"recipe_directions":"Spread chickpeas on prepared baking sheet."},{"recipe_directions":"Bake in the preheated oven until golden, about 40 minutes, shaking pan every 10 minutes. Remove chickpeas from oven; toss with mixed spice and salt. Place chickpeas back into the oven; turn oven off until completely cold, about 2 hours or up to overnight."}]</t>
         </is>
       </c>
-      <c r="J41" s="1" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Beans and Peas"}]</t>
         </is>
       </c>
-      <c r="K41" s="1" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"85\nCalories\n\n\n1g \nFat\n\n\n16g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="1" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>1699658633-41</t>
         </is>
       </c>
-      <c r="B42" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C42" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D42" s="1" t="inlineStr">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/_4KePva_l9T1RTs6iHzCAJuuuk8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/135997-7a99f1a65fd14a7c851e558fb4d54749.jpg"
@@ -2747,59 +2932,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E42" s="1" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/20942/beer-battered-onion-rings/</t>
         </is>
       </c>
-      <c r="F42" s="1" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>Beer Battered Onion Rings</t>
         </is>
       </c>
-      <c r="G42" s="1" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H42" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups all-purpose flour\n\n\n1  egg, beaten\n\n\n2 teaspoons dried parsley\n\n\n2 teaspoons garlic powder\n\n\n2 teaspoons dried oregano\n\n\n  salt and pepper to taste\n\n\n1 cup beer\n\n\n3 large onions, sliced into rings\n\n\n1 cup oil for frying"}]</t>
-        </is>
-      </c>
-      <c r="I42" s="1" t="inlineStr">
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups all-purpose flour\n\n\n1  egg, beaten\n\n\n2 teaspoons dried parsley\n\n\n2 teaspoons garlic powder\n\n\n2 teaspoons dried oregano\n\n\n  salt and pepper to taste\n\n\n1 cup beer\n\n\n3 large onions, sliced into rings\n\n\n1 cup oil for frying'}]</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a shallow bowl combine flour, egg, parsley, garlic powder, oregano, salt and pepper. Gradually add beer, stirring, until a thick batter forms. Add more or less beer depending on the desired consistency of the batter."},{"recipe_directions":"In a heavy frying pan heat oil (adjust amount, depending on the size of your pan, so that you have a couple of inches of oil) over medium-high heat. When oil is hot, dip onions in batter and fry, turning once to brown evenly on both sides. Drain on paper towels."},{"recipe_directions":"We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. The exact amount may vary depending on cook time and temperature, ingredient density, and the specific type of oil used."}]</t>
         </is>
       </c>
-      <c r="J42" s="1" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"}]</t>
         </is>
       </c>
-      <c r="K42" s="1" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"248\nCalories\n\n\n5g \nFat\n\n\n41g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="1" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>1699658643-42</t>
         </is>
       </c>
-      <c r="B43" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C43" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D43" s="1" t="inlineStr">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/mqBbrneZx5MoN_oMalEvewjrSzk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(639x0:641x2):format(webp)/image-153-01c4f6d16c2f4b9c981cba11879219bc.jpg"
@@ -2813,59 +2994,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E43" s="1" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/240093/mahi-mahi-ceviche/</t>
         </is>
       </c>
-      <c r="F43" s="1" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>Mahi Mahi Ceviche</t>
         </is>
       </c>
-      <c r="G43" s="1" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 30 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H43" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¾ pound mahi mahi fillets, diced, or more to taste\n\n\n⅓ cup lime juice\n\n\n⅓ cup lemon juice\n\n\n1 tablespoon minced jalapeno pepper\n\n\n½ teaspoon salt, or to taste\n\n\n1 pinch dried oregano\n\n\n1 pinch cayenne pepper\n\n\n½ cup diced avocados\n\n\n½ cup peeled and seeded diced cucumber\n\n\n½ cup diced orange segments\n\n\n½ cup chopped fresh chives\n\n\n2 tablespoons radishes, sliced\n\n\n1 tablespoon chopped cilantro\n\n\n1 tablespoon olive oil"}]</t>
-        </is>
-      </c>
-      <c r="I43" s="1" t="inlineStr">
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¾ pound mahi mahi fillets, diced, or more to taste\n\n\n⅓ cup lime juice\n\n\n⅓ cup lemon juice\n\n\n1 tablespoon minced jalapeno pepper\n\n\n½ teaspoon salt, or to taste\n\n\n1 pinch dried oregano\n\n\n1 pinch cayenne pepper\n\n\n½ cup diced avocados\n\n\n½ cup peeled and seeded diced cucumber\n\n\n½ cup diced orange segments\n\n\n½ cup chopped fresh chives\n\n\n2 tablespoons radishes, sliced\n\n\n1 tablespoon chopped cilantro\n\n\n1 tablespoon olive oil'}]</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Stir mahi mahi, lime juice, lemon juice, jalapeno pepper, salt, oregano, and cayenne pepper together in a bowl. Press down fish to completely immerse in liquid. Cover the bowl with plastic wrap and press plastic wrap down so that it is touching the fish. Refrigerate for at least 1 hour, or up to 6 hours."},{"recipe_directions":"Stir avocado, cucumber, orange, chives, radish, cilantro, and olive oil into mahi mahi mixture until completely coated. Season with salt."}]</t>
         </is>
       </c>
-      <c r="J43" s="1" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Seafood"},{"recipe_tags":"Ceviche Recipes"}]</t>
         </is>
       </c>
-      <c r="K43" s="1" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"117\nCalories\n\n\n6g \nFat\n\n\n7g \nCarbs\n\n\n11g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="1" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>1699658649-43</t>
         </is>
       </c>
-      <c r="B44" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C44" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D44" s="1" t="inlineStr">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/aIUQF1rob8StJrCc6TSasD4ebVM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(399x0:401x2):format(webp)/1984651-ceviche-peruano-zamfoll-4x3-1-f497eb29e0bb4904b3cc3e6019e19999.jpg"
@@ -2879,59 +3056,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E44" s="1" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/134464/ceviche-peruano/</t>
         </is>
       </c>
-      <c r="F44" s="1" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>Ceviche Peruano</t>
         </is>
       </c>
-      <c r="G44" s="1" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n40 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 2 hrs 10 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H44" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2  potatoes\n\n\n2  sweet potatoes\n\n\n1  red onion, cut into thin strips\n\n\n1 cup fresh lime juice\n\n\n½ stalk celery, sliced\n\n\n¼ cup lightly packed cilantro leaves\n\n\n1 pinch ground cumin\n\n\n1 clove garlic, minced\n\n\n1  habanero pepper, seeded and minced\n\n\n  Salt and freshly ground pepper to taste\n\n\n1 pound fresh tilapia, cut into 1/2-inch pieces\n\n\n1 pound medium shrimp - peeled, deveined, and cut into 1/2-inch pieces\n\n\n1  bibb or Boston lettuce, separated into leaves"}]</t>
-        </is>
-      </c>
-      <c r="I44" s="1" t="inlineStr">
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2  potatoes\n\n\n2  sweet potatoes\n\n\n1  red onion, cut into thin strips\n\n\n1 cup fresh lime juice\n\n\n½ stalk celery, sliced\n\n\n¼ cup lightly packed cilantro leaves\n\n\n1 pinch ground cumin\n\n\n1 clove garlic, minced\n\n\n1  habanero pepper, seeded and minced\n\n\n  Salt and freshly ground pepper to taste\n\n\n1 pound fresh tilapia, cut into 1/2-inch pieces\n\n\n1 pound medium shrimp - peeled, deveined, and cut into 1/2-inch pieces\n\n\n1  bibb or Boston lettuce, separated into leaves'}]</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place the potatoes and sweet potatoes in a saucepan and cover with water. Simmer until the potatoes are easily pierced with a fork, then drain, and set aside to cool to room temperature. Place the sliced onion in a bowl of warm water, let stand 10 minutes, then drain and set aside."},{"recipe_directions":"Meanwhile, place the lime juice, celery, cilantro, and cumin into the bowl of a blender, and puree until smooth. Pour this mixture into a large glass bowl, and stir in the garlic and habanero pepper. Season with salt and pepper, then stir in the diced tilapia and shrimp."},{"recipe_directions":"Set aside to marinate for an hour, stirring occasionally. The seafood is done once it turns firm and opaque."},{"recipe_directions":"To serve, peel the potatoes and cut into slices. Stir the onions into the fish mixture. Line serving bowls with lettuce leaves. Spoon the ceviche with its juice into the bowls and garnish with slices of potato."}]</t>
         </is>
       </c>
-      <c r="J44" s="1" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Tapas"}]</t>
         </is>
       </c>
-      <c r="K44" s="1" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"237\nCalories\n\n\n2g \nFat\n\n\n29g \nCarbs\n\n\n26g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="1" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>1699658655-44</t>
         </is>
       </c>
-      <c r="B45" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C45" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D45" s="1" t="inlineStr">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/9IGZ7TgACIsrQGB39ReBYJpK8PY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(539x0:541x2):format(webp)/6324174-c74344d05d0945aebfe6d6a5a7f8ac50.jpg"
@@ -2944,59 +3117,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E45" s="1" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/17225/roti-bread-from-india/</t>
         </is>
       </c>
-      <c r="F45" s="1" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>Roti Bread from India</t>
         </is>
       </c>
-      <c r="G45" s="1" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n12 \n\n\nYield:\n12 roti breads"}]</t>
         </is>
       </c>
-      <c r="H45" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups durum wheat flour\n\n\n¾ cup water\n\n\n1 tablespoon vegetable oil\n\n\n½ teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="I45" s="1" t="inlineStr">
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups durum wheat flour\n\n\n¾ cup water\n\n\n1 tablespoon vegetable oil\n\n\n½ teaspoon salt'}]</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Stir flour, water, oil, and salt together in a medium bowl until well combined and pulling away from the sides. Turn dough out onto a well-floured surface and knead until smooth and pliable, about 10 minutes."},{"recipe_directions":"Divide dough into 12 equal pieces. Form each piece into a round. Working with one round at a time while all others are covered with a damp cloth, flatten with the palm of your hand, then use a rolling pin to roll into 6- to 8-inch diameter circle."},{"recipe_directions":"Heat a dry skillet or tava over medium-high heat. Cook one roti at a time in the hot skillet until golden with some darker brown spots, about 1 minute per side, As it cooks, roll the next roti. Serve warm."}]</t>
         </is>
       </c>
-      <c r="J45" s="1" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Quick Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K45" s="1" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"119\nCalories\n\n\n2g \nFat\n\n\n23g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="1" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>1699658662-45</t>
         </is>
       </c>
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C46" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D46" s="1" t="inlineStr">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/teXLz6ZnGsCFyUebFlBs2HI6pag=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/673791-honey-wheat-bread-ii-Holiday-Baker-4x3-1-88c92e1b26254fe78e76842346b9013e.jpg"
@@ -3010,59 +3179,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E46" s="1" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/6763/honey-wheat-bread-ii/</t>
         </is>
       </c>
-      <c r="F46" s="1" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>Honey Wheat Bread II</t>
         </is>
       </c>
-      <c r="G46" s="1" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n30 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 2 hrs\n\n\nServings:\n24 \n\n\nYield:\n2 loaves"}]</t>
         </is>
       </c>
-      <c r="H46" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups warm water (110 degrees F/45 degrees C)\n\n\n2 cups whole wheat flour\n\n\n1 tablespoon active dry yeast\n\n\n1 teaspoon salt\n\n\n⅓ cup honey\n\n\n⅓ cup vegetable oil\n\n\n5 cups all-purpose flour"}]</t>
-        </is>
-      </c>
-      <c r="I46" s="1" t="inlineStr">
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups warm water (110 degrees F/45 degrees C)\n\n\n2 cups whole wheat flour\n\n\n1 tablespoon active dry yeast\n\n\n1 teaspoon salt\n\n\n⅓ cup honey\n\n\n⅓ cup vegetable oil\n\n\n5 cups all-purpose flour'}]</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Dissolve yeast in warm water. Add honey, and stir well. Mix in whole wheat flour, salt, and vegetable oil. Work all-purpose flour in gradually. Turn dough out onto a lightly floured surface, and knead for at least 10 to 15 minutes. When dough is smooth and elastic, place it in a well oiled bowl. Turn it several times in the bowl to coat the surface of the dough, and cover with a damp cloth. Let rise in a warm place until doubled in bulk, about 45 minutes."},{"recipe_directions":"Punch down the dough. Shape into two loaves, and place into two well greased 9 x 5 inch loaf pans. Allow to rise until dough is 1 to 1 1/2 inches above pans."},{"recipe_directions":"Bake at 375 degrees F (190 degrees C) for 25 to 30 minutes."}]</t>
         </is>
       </c>
-      <c r="J46" s="1" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Bread"},{"recipe_tags":"Yeast Bread Recipes"},{"recipe_tags":"Whole Grain Bread Recipes"},{"recipe_tags":"Wheat Bread"}]</t>
         </is>
       </c>
-      <c r="K46" s="1" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"172\nCalories\n\n\n4g \nFat\n\n\n31g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="1" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>1699658670-46</t>
         </is>
       </c>
-      <c r="B47" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C47" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D47" s="1" t="inlineStr">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/fmi_aGVfkSZwe9uWdN9zAOM-9_Y=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1727x0:1729x2):format(webp)/229446tomato-concasseFranceC4x3-a935735d8229400b8204d60e1adae792.jpg"
@@ -3076,59 +3241,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E47" s="1" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/229446/tomato-concasse/</t>
         </is>
       </c>
-      <c r="F47" s="1" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>Tomato Concasse</t>
         </is>
       </c>
-      <c r="G47" s="1" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n1 mins\n\n\nTotal Time:\n11 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H47" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3  tomatoes, cored"}]</t>
-        </is>
-      </c>
-      <c r="I47" s="1" t="inlineStr">
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3  tomatoes, cored'}]</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Fill a large bowl with ice cubes and water and set aside."},{"recipe_directions":"Bring a large pot of water to a boil."},{"recipe_directions":"Cut an X in the bottom of each tomato with a knife."},{"recipe_directions":"Place prepared tomatoes in the pot of boiling water and cook until the skins begin to peel off, 10 to 40 seconds."},{"recipe_directions":"Transfer tomatoes to the bowl of ice water and allow to cool for 2 to 3 minutes. When cool enough to handle, peel the skin off each tomato."},{"recipe_directions":"Cut each tomato in half crosswise and remove and discard the seeds; finely dice the flesh."}]</t>
         </is>
       </c>
-      <c r="J47" s="1" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"},{"recipe_tags":"Salsa Recipes"},{"recipe_tags":"Tomato Salsa Recipes"}]</t>
         </is>
       </c>
-      <c r="K47" s="1" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"33\nCalories\n\n\n0g \nFat\n\n\n7g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="1" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>1699658677-47</t>
         </is>
       </c>
-      <c r="B48" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C48" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D48" s="1" t="inlineStr">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/r2RZJkyZinFqAR6wNbgB87XIRKc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/54346-Applesauce-Tammy-Lynn-1x1-1-2000-7841a69361d940e6b273e7512ba80971.jpg"
@@ -3142,59 +3303,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E48" s="1" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/54346/applesauce/</t>
         </is>
       </c>
-      <c r="F48" s="1" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>Applesauce</t>
         </is>
       </c>
-      <c r="G48" s="1" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H48" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6 cups apples - peeled, cored and chopped\n\n\n¾ cup water\n\n\n⅛ teaspoon ground cinnamon\n\n\n⅛ teaspoon ground cloves\n\n\n½ cup white sugar"}]</t>
-        </is>
-      </c>
-      <c r="I48" s="1" t="inlineStr">
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6 cups apples - peeled, cored and chopped\n\n\n¾ cup water\n\n\n⅛ teaspoon ground cinnamon\n\n\n⅛ teaspoon ground cloves\n\n\n½ cup white sugar'}]</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a 2 quart saucepan over medium heat, combine apples, water, cinnamon, and cloves. Bring to a boil, reduce heat, and simmer 10 minutes. Stir in sugar, and simmer 5 more minutes."}]</t>
         </is>
       </c>
-      <c r="J48" s="1" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Applesauce Recipes"}]</t>
         </is>
       </c>
-      <c r="K48" s="1" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"195\nCalories\n\n\n0g \nFat\n\n\n51g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="1" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>1699658684-48</t>
         </is>
       </c>
-      <c r="B49" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C49" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D49" s="1" t="inlineStr">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/iV6uXoy3ThkNoiX0bcBIrirc3Rs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/866636-a3f03b3d2b384508a28e55a6a595770d.jpg"
@@ -3207,59 +3364,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E49" s="1" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/16259/ds-famous-salsa/</t>
         </is>
       </c>
-      <c r="F49" s="1" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>D's Famous Salsa</t>
         </is>
       </c>
-      <c r="G49" s="1" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n16"}]</t>
         </is>
       </c>
-      <c r="H49" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 (14.5 ounce) cans stewed tomatoes\n\n\n½  onion, finely diced\n\n\n¼ cup canned sliced green chiles, or to taste\n\n\n3 tablespoons chopped fresh cilantro\n\n\n½  lime, juiced\n\n\n1 teaspoon minced garlic\n\n\n1 teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="I49" s="1" t="inlineStr">
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 (14.5 ounce) cans stewed tomatoes\n\n\n½  onion, finely diced\n\n\n¼ cup canned sliced green chiles, or to taste\n\n\n3 tablespoons chopped fresh cilantro\n\n\n½  lime, juiced\n\n\n1 teaspoon minced garlic\n\n\n1 teaspoon salt'}]</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place tomatoes, onion, green chiles, cilantro, lime juice, garlic, and salt in a blender or food processor. Blend on low to desired consistency."}]</t>
         </is>
       </c>
-      <c r="J49" s="1" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"},{"recipe_tags":"Salsa Recipes"},{"recipe_tags":"Tomato Salsa Recipes"}]</t>
         </is>
       </c>
-      <c r="K49" s="1" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"16\nCalories\n\n\n0g \nFat\n\n\n4g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="1" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>1699658690-49</t>
         </is>
       </c>
-      <c r="B50" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C50" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D50" s="1" t="inlineStr">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/kSXJvS6NYiml97QYeVm9BwLGp-w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1044102-7c59e52bbc6947c2ab182f304b249fc8.jpg"
@@ -3272,59 +3425,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E50" s="1" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/74591/jens-fresh-and-spicy-salsa/</t>
         </is>
       </c>
-      <c r="F50" s="1" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>Jen's Fresh and Spicy Salsa</t>
         </is>
       </c>
-      <c r="G50" s="1" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n16"}]</t>
         </is>
       </c>
-      <c r="H50" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"5  roma (plum) tomatoes, seeded and chopped\n\n\n10  green onions\n\n\n2 fresh jalapeno peppers, seeded\n\n\n¼ cup chopped fresh cilantro\n\n\n2 tablespoons fresh lime juice\n\n\n2 tablespoons hot pepper sauce\n\n\n1 teaspoon ground black pepper\n\n\n1 teaspoon garlic powder\n\n\n1 teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="I50" s="1" t="inlineStr">
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '5  roma (plum) tomatoes, seeded and chopped\n\n\n10  green onions\n\n\n2 fresh jalapeno peppers, seeded\n\n\n¼ cup chopped fresh cilantro\n\n\n2 tablespoons fresh lime juice\n\n\n2 tablespoons hot pepper sauce\n\n\n1 teaspoon ground black pepper\n\n\n1 teaspoon garlic powder\n\n\n1 teaspoon salt'}]</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Pulse tomatoes, green onions, jalapeño peppers, and cilantro in a blender or food processor to desired consistency. Transfer to a serving bowl. Mix in lime juice, hot pepper sauce, black pepper, garlic powder, and salt until well combined."}]</t>
         </is>
       </c>
-      <c r="J50" s="1" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"},{"recipe_tags":"Salsa Recipes"},{"recipe_tags":"Tomato Salsa Recipes"}]</t>
         </is>
       </c>
-      <c r="K50" s="1" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"9\nCalories\n\n\n0g \nFat\n\n\n2g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="1" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>1699658697-50</t>
         </is>
       </c>
-      <c r="B51" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C51" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D51" s="1" t="inlineStr">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/X-LXMFJ6oFMnv-P7oXtA6EQElBE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1151x0:1153x2):format(webp)/6263825-a6f95ec486724b9bbcda6449d8ffc067.jpg"
@@ -3337,59 +3486,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E51" s="1" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/6799/honey-whole-wheat-bread/</t>
         </is>
       </c>
-      <c r="F51" s="1" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>Honey Whole Wheat Bread</t>
         </is>
       </c>
-      <c r="G51" s="1" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n 3 hrs\n\n\nTotal Time:\n 3 hrs 5 mins\n\n\nServings:\n10 \n\n\nYield:\n1 loaf"}]</t>
         </is>
       </c>
-      <c r="H51" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 1/8 cups warm water (110 degrees F/45 degrees C)\n\n\n3 tablespoons honey\n\n\n2 tablespoons vegetable oil\n\n\n1 1/2 cups whole wheat flour\n\n\n1 1/2 cups bread flour\n\n\n1/3 teaspoon salt\n\n\n1 1/2 teaspoons active dry yeast"}]</t>
-        </is>
-      </c>
-      <c r="I51" s="1" t="inlineStr">
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 1/8 cups warm water (110 degrees F/45 degrees C)\n\n\n3 tablespoons honey\n\n\n2 tablespoons vegetable oil\n\n\n1 1/2 cups whole wheat flour\n\n\n1 1/2 cups bread flour\n\n\n1/3 teaspoon salt\n\n\n1 1/2 teaspoons active dry yeast'}]</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place water, honey, oil, whole wheat flour, bread flour, salt, then yeast into a bread machine in the order listed, or follow the order recommended by the manufacturer if different."},{"recipe_directions":"Run Whole Wheat cycle, light color setting."},{"recipe_directions":"Remove loaf from the machine after the cycle is done, about 3 hours."}]</t>
         </is>
       </c>
-      <c r="J51" s="1" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Bread"},{"recipe_tags":"Yeast Bread Recipes"},{"recipe_tags":"Whole Grain Bread Recipes"},{"recipe_tags":"Wheat Bread"}]</t>
         </is>
       </c>
-      <c r="K51" s="1" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"180\nCalories\n\n\n4g \nFat\n\n\n33g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="1" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>1699658706-51</t>
         </is>
       </c>
-      <c r="B52" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C52" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D52" s="1" t="inlineStr">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/jlfRoWGWODbSmLw9NBR-nQ1Ii9U=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4428747-66387bdad9624f3f86879e33c041ad76.jpg"
@@ -3402,59 +3547,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E52" s="1" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/223112/first-baby-food-peas/</t>
         </is>
       </c>
-      <c r="F52" s="1" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>First Baby Food: Peas</t>
         </is>
       </c>
-      <c r="G52" s="1" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 20 mins\n\n\nServings:\n12"}]</t>
         </is>
       </c>
-      <c r="H52" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 cups frozen peas\n\n\n½ cup breast milk"}]</t>
-        </is>
-      </c>
-      <c r="I52" s="1" t="inlineStr">
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 cups frozen peas\n\n\n½ cup breast milk'}]</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place a steamer insert into a saucepan and fill with water to just below the bottom of the steamer. Bring water to a boil. Add peas, cover, and steam until tender, about 15 minutes."},{"recipe_directions":"Place peas and breast milk in a blender or food processor; puree until creamy. Strain mixture through a fine-mesh sieve to remove any lumps."},{"recipe_directions":"Spread pea mixture into an ice cube tray; cover with plastic wrap and freeze until solid, 2 to 3 hours. Transfer frozen cubes to a resealable plastic bag and store in the freezer."},{"recipe_directions":"To serve, heat cubes in the microwave for about 30 seconds until warm but not hot. Stir thoroughly."},{"recipe_directions":"You can use fresh peas instead of frozen ones if you have them. You can also substitute formula or water for breast milk."},{"recipe_directions":"Store frozen cubes in the freezer for up to 2 months."}]</t>
         </is>
       </c>
-      <c r="J52" s="1" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Green Peas"}]</t>
         </is>
       </c>
-      <c r="K52" s="1" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"47\nCalories\n\n\n1g \nFat\n\n\n8g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="1" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>1699658718-52</t>
         </is>
       </c>
-      <c r="B53" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C53" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D53" s="1" t="inlineStr">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/neeGfpnvjqS1ZpK0raPG1WPExOA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1038134-7d624372d49a4ffd88a0bab2c2773fd1.jpg"
@@ -3467,59 +3608,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E53" s="1" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/223467/granola-bars/</t>
         </is>
       </c>
-      <c r="F53" s="1" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>Granola Bars</t>
         </is>
       </c>
-      <c r="G53" s="1" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n25 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 40 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H53" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"cooking spray\n\n\n2 cups rolled oats\n\n\n½ cup shredded coconut\n\n\n½ cup honey\n\n\n2 tablespoons creamy peanut butter\n\n\n1 teaspoon vanilla extract\n\n\n⅛ teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="I53" s="1" t="inlineStr">
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'cooking spray\n\n\n2 cups rolled oats\n\n\n½ cup shredded coconut\n\n\n½ cup honey\n\n\n2 tablespoons creamy peanut butter\n\n\n1 teaspoon vanilla extract\n\n\n⅛ teaspoon salt'}]</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Skip the store-bought stuff and make granola bars at home! This homemade granola bar recipe is quick, wholesome, and budget-friendly. Plus, it's easy to tweak the ingredients based on what you have on hand."},{"recipe_directions":"It couldn't be easier to make granola bars at home. You'll find the full, step-by-step recipe below — but here's a brief overview of what you can expect:"},{"recipe_directions":"1. Toast the oats and coconut in the oven.\n2. Mix the remaining ingredients over medium heat.\n3. Pour the peanut butter mixture over the toasted oats and coconut.\n4. Baked until the granola has reached the desired texture.\n5. Cool completely before cutting."},{"recipe_directions":"Granola bars can be as healthy as you want them to be! They're super versatile, so you can personalize the ingredients to suit your needs."},{"recipe_directions":"This fiber- and protein-packed homemade granola bar recipe calls for a deliciously wholesome mixture of rolled oats, shredded coconut, and peanut butter. It's simply sweetened with honey and vanilla extract, while a pinch of salt enhances the other flavors."},{"recipe_directions":"\"This is a great recipe that you can customize to make your own,\" according to culinary producer Nicole McLaughlin (a.k.a. NicoleMcmom). Here are some of her favorite ways to switch things up:"},{"recipe_directions":"· Substitute almond butter (for peanut butter) and/or maple syrup (for honey).\n· Stir in chocolate chips, chopped nuts, raisins, and/or dried cranberries.\n· Don't like coconut? Leave it out! The only absolutely essential ingredients are nut butter, oats, and a sweetener. The rest is entirely up to you."},{"recipe_directions":"Store the granola bars in a shallow, airtight container with parchment or wax paper between each layer to prevent sticking. You can also individually wrap each bar in wax or parchment paper. They should last about a week."},{"recipe_directions":"Yes, you can freeze homemade granola bars for up to two months. Arrange the bars in a single layer on a baking sheet, cover, and freeze for a few hours or up to overnight. Transfer the now-frozen bars to a zip-top freezer bag or another freezer-safe container for long-term storage. Thaw at room temperature before enjoying."},{"recipe_directions":"\"Great basic granola bar recipe,\" says anru7695. \"Tasty and easy. Came right out of the (greased) pan. I cut it twice — once while still slightly warm, then I went over the lines again after it had cooled completely. Worked for me.\""},{"recipe_directions":"\"Perfect,\" according to Kelly Hebron. \"I added sunflower seeds, flaxseeds, raisins, and chocolate chips. It was a winner in our house! Don't cook it for 15 minutes unless you want it crisp.\""},{"recipe_directions":"\"I'm eating some now and it is super duper delicious,\" raves Rachel Butler. \"I baked it for just about 9 minutes and it's wonderfully chewy.\""},{"recipe_directions":"Editorial contributions by Corey Williams"},{"recipe_directions":"Preheat the oven to 325 degrees F (165 degrees C). Grease a 9-inch square baking dish."},{"recipe_directions":"Spread oats and coconut evenly across a baking sheet."},{"recipe_directions":"Toast oats and coconut in the preheated oven until browned, about 10 minutes; transfer to a large mixing bowl."},{"recipe_directions":"Mix honey, peanut butter, vanilla, and salt in a saucepan over medium-low heat. Cook and stir until smooth. Pour honey mixture over oats and coconut. Stir to coat. Spread mixture evenly into the prepared baking dish."},{"recipe_directions":"Bake in the preheated oven until beginning to dry, about 15 minutes for crunchy granola bars, less if you like them chewy. Cool completely before cutting."}]</t>
         </is>
       </c>
-      <c r="J53" s="1" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Snacks"},{"recipe_tags":"Granola Bar Recipes"}]</t>
         </is>
       </c>
-      <c r="K53" s="1" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"188\nCalories\n\n\n5g \nFat\n\n\n34g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="1" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>1699658724-53</t>
         </is>
       </c>
-      <c r="B54" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C54" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D54" s="1" t="inlineStr">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/XFzIEcBbjQ1KNi0WdVxQahqJ8qU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/525441-8fb017901e7b4c9d831559e8de2d1183.jpg"
@@ -3532,59 +3669,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E54" s="1" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/141135/cranberry-salsa/</t>
         </is>
       </c>
-      <c r="F54" s="1" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>Cranberry Salsa</t>
         </is>
       </c>
-      <c r="G54" s="1" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H54" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (12 ounce) bag fresh cranberries\n\n\n¾ cup white sugar\n\n\n1 bunch cilantro, chopped\n\n\n1 bunch green onions, cut into 3 inch lengths\n\n\n1 medium jalapeno pepper, seeded and minced\n\n\n2 medium limes, juiced\n\n\n1 pinch salt"}]</t>
-        </is>
-      </c>
-      <c r="I54" s="1" t="inlineStr">
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (12 ounce) bag fresh cranberries\n\n\n¾ cup white sugar\n\n\n1 bunch cilantro, chopped\n\n\n1 bunch green onions, cut into 3 inch lengths\n\n\n1 medium jalapeno pepper, seeded and minced\n\n\n2 medium limes, juiced\n\n\n1 pinch salt'}]</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine cranberries, sugar, cilantro, green onions, jalapeño, lime juice, and salt in the bowl of a food processor fitted with a medium blade; process to medium consistency."}]</t>
         </is>
       </c>
-      <c r="J54" s="1" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"},{"recipe_tags":"Salsa Recipes"}]</t>
         </is>
       </c>
-      <c r="K54" s="1" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"144\nCalories\n\n\n0g \nFat\n\n\n37g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="1" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>1699658731-54</t>
         </is>
       </c>
-      <c r="B55" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C55" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D55" s="1" t="inlineStr">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/F8ovEeYpxfTJKAdShe3ea7uOxko=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/16542-Salsa-ddmfs-4x3-041-8a68e3aa135c4d35bbaa0a01a9d3403e.jpg"
@@ -3598,59 +3731,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E55" s="1" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/16542/salsa/</t>
         </is>
       </c>
-      <c r="F55" s="1" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>Salsa</t>
         </is>
       </c>
-      <c r="G55" s="1" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n4 \n\n\nYield:\n4 cups"}]</t>
         </is>
       </c>
-      <c r="H55" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 large tomatoes, chopped\n\n\n1  onion, chopped\n\n\n1  tomatillo, diced (Optional)\n\n\n½ cup chopped fresh cilantro\n\n\n3 cloves garlic, minced\n\n\n1 tablespoon lime juice\n\n\n  salt to taste\n\n\n1  jalapeno pepper, minced"}]</t>
-        </is>
-      </c>
-      <c r="I55" s="1" t="inlineStr">
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 large tomatoes, chopped\n\n\n1  onion, chopped\n\n\n1  tomatillo, diced (Optional)\n\n\n½ cup chopped fresh cilantro\n\n\n3 cloves garlic, minced\n\n\n1 tablespoon lime juice\n\n\n  salt to taste\n\n\n1  jalapeno pepper, minced'}]</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Combine tomatoes, onion, tomatillo, cilantro, garlic, lime juice, and salt in a medium-sized mixing bowl. Mix well."},{"recipe_directions":"Add 1/2 of the jalapeño pepper and taste. If you desire your salsa with more kick, add remaining 1/2 jalapeño."},{"recipe_directions":"Cover the salsa and chill until ready to serve."}]</t>
         </is>
       </c>
-      <c r="J55" s="1" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"},{"recipe_tags":"Salsa Recipes"},{"recipe_tags":"Tomato Salsa Recipes"}]</t>
         </is>
       </c>
-      <c r="K55" s="1" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"53\nCalories\n\n\n1g \nFat\n\n\n12g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="1" t="inlineStr">
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t>1699658739-55</t>
         </is>
       </c>
-      <c r="B56" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C56" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D56" s="1" t="inlineStr">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/qkpFUnKGcEvo3NheLOYjNrO8x5g=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3571915-85fed625e02740e7bcb620b90f06eee6.jpg"
@@ -3663,59 +3792,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E56" s="1" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/7047/ezekiel-bread-i/</t>
         </is>
       </c>
-      <c r="F56" s="1" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>Ezekiel Bread</t>
         </is>
       </c>
-      <c r="G56" s="1" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n45 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 2 hrs 5 mins\n\n\nServings:\n24 \n\n\nYield:\n2 loaves"}]</t>
         </is>
       </c>
-      <c r="H56" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 cups warm water (110 degrees F/45 degrees C)\n\n\n1 cup honey\n\n\n½ cup olive oil\n\n\n2 (.25 ounce) packages active dry yeast\n\n\n2 ½ cups wheat berries\n\n\n1 ½ cups spelt flour\n\n\n½ cup barley\n\n\n½ cup millet\n\n\n¼ cup dry green lentils\n\n\n2 tablespoons dry great Northern beans\n\n\n2 tablespoons dry kidney beans\n\n\n2 tablespoons dried pinto beans\n\n\n2 tablespoons salt, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I56" s="1" t="inlineStr">
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 cups warm water (110 degrees F/45 degrees C)\n\n\n1 cup honey\n\n\n½ cup olive oil\n\n\n2 (.25 ounce) packages active dry yeast\n\n\n2 ½ cups wheat berries\n\n\n1 ½ cups spelt flour\n\n\n½ cup barley\n\n\n½ cup millet\n\n\n¼ cup dry green lentils\n\n\n2 tablespoons dry great Northern beans\n\n\n2 tablespoons dry kidney beans\n\n\n2 tablespoons dried pinto beans\n\n\n2 tablespoons salt, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"This Ezekiel bread, made from sprouted grains and beans, is an easy and healthy recipe to make at home."},{"recipe_directions":"Ezekiel bread is a type of whole grain bread that gets its name from an ancient bread formula found in the Bible. Made from sprouted grains and beans, Ezekiel bread is chock-full of healthy vitamins and minerals."},{"recipe_directions":"These are the wholesome ingredients you'll need to make this homemade Ezekiel bread recipe:"},{"recipe_directions":"· Water: You'll need warm water to dissolve the yeast.\n· Honey and oil: Dissolve the yeast with honey and oil for subtle sweetness and moisture.\n· Yeast: Use two packages of active dry yeast for two loaves.\n· Wheat berries: Wheat berries are the whole wheat kernels with the bran and germ intact, but the husk removed.\n· Spelt flour: Spelt flour is a type of whole wheat flour made from the entire grain.\n· Barley: Barley is a chewy cereal grain with a mild taste.\n· Millet: Millet is a small, round grain in the grass family.\n· Beans: You'll need dry green lentils, dry great Northern beans, dry kidney beans, and dry pinto beans.\n· Salt: Salt enhances the overall flavor of the bread."},{"recipe_directions":"You'll find the full, step-by-step recipe below — but here's a brief overview of what you can expect when you make your own Ezekiel bread:"},{"recipe_directions":"1. Activate the yeast with the water, honey, and oil.\n2. Stir the grains and beans together, then grind them in a flour mill.\n3. Add the flour mixture and salt to the yeast mixture. Stir to form a loose dough.\n4. Pour the dough into prepared loaf pans and let rise.\n5. Bake in the preheated oven until the loaves are golden brown."},{"recipe_directions":"No, Ezekiel bread isn't gluten-free. Even though the recipe doesn't contain traditional all-purpose flour, three of the ingredients (wheat berries, spelt flour, and barley) contain gluten."},{"recipe_directions":"Store Ezekiel bread at room temperature for up to three days. After three days, you'll need to freeze it. The best way to freeze Ezekiel bread is in individual slices so you can thaw them as-needed."},{"recipe_directions":"\"This bread has become our favorite,\" says jill stewart. \"I grind and bake it every two weeks. I keep the fresh small loaves in the freezer until we finish the previous loaf, and it is absolutely perfect. I don't just like this bread. It is the BEST bread that I have ever eaten.\""},{"recipe_directions":"\"This is a very hearty bread,\" according to Connie Duran. \"Must be treated like a sweet bread, in that it holds together better if put in a plastic wrap and then used the next day. Very filling. Pleasant texture.\""},{"recipe_directions":"\"This is a great diet meal for the money,\" says MelWad. \"It also makes a great french toast! I ran out of honey last time and substituted a small portion of molasses.\""},{"recipe_directions":"Editorial contributions by Corey Williams"},{"recipe_directions":"Mix water, honey, olive oil, and yeast in a large bowl. Let sit for 3 to 5 minutes."},{"recipe_directions":"Meanwhile, stir together wheat berries, spelt flour, barley, millet, lentils, great northern beans, kidney beans, and pinto beans together until well mixed. Grind in a flour mill."},{"recipe_directions":"Add fresh milled flour mixture and salt to yeast mixture; stir until well mixed, about 10 minutes. The dough will be loose."},{"recipe_directions":"Pour dough into two greased 9x5-inch loaf pans."},{"recipe_directions":"Let rise in a warm place until dough has reached the top of the pan, about 1 hour."},{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Bake in the preheated oven until loaves are golden brown, 45 to 50 minutes."}]</t>
         </is>
       </c>
-      <c r="J56" s="1" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Yeast Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K56" s="1" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"221\nCalories\n\n\n5g \nFat\n\n\n40g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="1" t="inlineStr">
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t>1699658747-56</t>
         </is>
       </c>
-      <c r="B57" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C57" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D57" s="1" t="inlineStr">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/pAolKDoRdMZAT8SXzPaHxM51Zbc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/35304-how-to-make-pico-de-gallo-VAT-hero-4x3-67d14bca3d36432ea7762cf3d8f3936e.jpg"
@@ -3729,59 +3854,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E57" s="1" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/35304/how-to-make-pico-de-gallo/</t>
         </is>
       </c>
-      <c r="F57" s="1" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>How to Make Pico de Gallo</t>
         </is>
       </c>
-      <c r="G57" s="1" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H57" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 medium tomato, diced\n\n\n1  onion, finely chopped\n\n\n½  jalapeño pepper, seeded and chopped\n\n\n2 sprigs fresh cilantro, finely chopped\n\n\n1  green onion, finely chopped\n\n\n½ teaspoon garlic powder\n\n\n⅛ teaspoon salt\n\n\n⅛ teaspoon pepper"}]</t>
-        </is>
-      </c>
-      <c r="I57" s="1" t="inlineStr">
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 medium tomato, diced\n\n\n1  onion, finely chopped\n\n\n½  jalapeño pepper, seeded and chopped\n\n\n2 sprigs fresh cilantro, finely chopped\n\n\n1  green onion, finely chopped\n\n\n½ teaspoon garlic powder\n\n\n⅛ teaspoon salt\n\n\n⅛ teaspoon pepper'}]</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Pico de gallo is a fresh, tomato-based salsa that's found in Mexican cuisine. Wondering how to make delicious pico de gallo at home? You've come to the right place. Learn how to make, store, and serve the best pico de gallo of your life with this top-rated recipe."},{"recipe_directions":"Pico de gallo (a.k.a. salsa fresca) is a type of fresh salsa found in Mexican cuisine. Traditional ingredients include tomatoes, onions, serrano or jalapeno peppers, cilantro, and sometimes lime juice. Other spices and seasonings are often used. Since it contains less liquid than other salsa varieties, pico de gallo can be used in a variety of ways. It can be served with chips for dipping, used as a topping for tacos, or included as an ingredient in burritos and quesadillas."},{"recipe_directions":"Pico de gallo is sometimes called salsa bandera, or flag sauce, because it features all the colors of the Mexican flag (red tomatoes, green peppers and cilantro, and white onions)."},{"recipe_directions":"Making restaurant-worthy pico de gallo is easier than you think. You just need to follow a few simple steps. You'll find the full recipe below, but here's a brief overview of what you can expect:"},{"recipe_directions":"When it comes to pico de gallo, freshness is key. Use high-quality tomatoes that are ripe and vibrantly colored (Roma tomatoes work well). Since all the ingredients are in season during the summertime, pico de gallo makes a great seasonal dish."},{"recipe_directions":"Combine the diced tomatoes, onions, and peppers. Toss the veggies with the chopped cilantro and your seasonings."},{"recipe_directions":"Make sure to allow the pico de gallo to chill for at least 30 minutes to allow the flavors to meld."},{"recipe_directions":"Once again, fresh is best — so try to eat the pico de gallo the day it's made. If you need to keep it for longer, store it in an airtight container in the fridge for up to three days."},{"recipe_directions":"\"Beautiful, easy, and fast,\" raves Arpeggio Garden. \"We always use fresh garlic, but otherwise an excellent recipe! No need ever to buy salsa! Thanks for the lovely recipe!\""},{"recipe_directions":"\"Great recipe,\" says TAMI426. \"I used red onion and added the juice of one lime. I let it sit for about 30 minutes, before serving. It was delicious.\""},{"recipe_directions":"\"I made this for a make-your-own-taco buffet at work, and everyone loved it,\" Laura Brann. \"I agree that it's much tastier if you let the flavors mingle overnight.\""},{"recipe_directions":"Editorial contributions by Corey Williams"},{"recipe_directions":"Prep and gather all your ingredients."},{"recipe_directions":"Add tomato, onion, jalapeño pepper, cilantro and green onion in a medium bowl."},{"recipe_directions":"Season with garlic powder, salt, and pepper. Stir until evenly distributed."},{"recipe_directions":"Refrigerate for 30 minutes before serving."}]</t>
         </is>
       </c>
-      <c r="J57" s="1" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"},{"recipe_tags":"Salsa Recipes"}]</t>
         </is>
       </c>
-      <c r="K57" s="1" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"21\nCalories\n\n\n0g \nFat\n\n\n5g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="1" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>1699658753-57</t>
         </is>
       </c>
-      <c r="B58" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C58" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D58" s="1" t="inlineStr">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/mRD-sA-Jz_a0tMl_DLJfvazo1cA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1092733-3044d24240554942910a95f92e44d164.jpg"
@@ -3794,59 +3915,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E58" s="1" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/236025/salt-and-pepper-skillet-fries/</t>
         </is>
       </c>
-      <c r="F58" s="1" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>Salt and Pepper Skillet Fries</t>
         </is>
       </c>
-      <c r="G58" s="1" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H58" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons olive oil\n\n\n1 teaspoon butter\n\n\n3 large potatoes, sliced lengthwise into 1/2-inch circles and cut into 1/2-inch strips\n\n\n¼ teaspoon coarse sea salt\n\n\n¼ teaspoon cracked black pepper"}]</t>
-        </is>
-      </c>
-      <c r="I58" s="1" t="inlineStr">
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons olive oil\n\n\n1 teaspoon butter\n\n\n3 large potatoes, sliced lengthwise into 1/2-inch circles and cut into 1/2-inch strips\n\n\n¼ teaspoon coarse sea salt\n\n\n¼ teaspoon cracked black pepper'}]</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat olive oil and butter in a skillet over medium heat."},{"recipe_directions":"Cook and stir potato strips in hot oil mixture until browned on all sides, 20 to 25 minutes."},{"recipe_directions":"Transfer fries to a paper towel-lined plate; season with sea salt and cracked black pepper."}]</t>
         </is>
       </c>
-      <c r="J58" s="1" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Fries Recipes"},{"recipe_tags":"French Fries Recipes"}]</t>
         </is>
       </c>
-      <c r="K58" s="1" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"282\nCalories\n\n\n8g \nFat\n\n\n48g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="1" t="inlineStr">
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t>1699658759-58</t>
         </is>
       </c>
-      <c r="B59" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C59" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D59" s="1" t="inlineStr">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Uilpyf5BOpaVzScwubrllWgMhS8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/669625-1497f7fdeb924813abb10abdb8798b1c.jpg"
@@ -3859,59 +3976,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E59" s="1" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/24720/texas-caviar-i/</t>
         </is>
       </c>
-      <c r="F59" s="1" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>Texas Caviar</t>
         </is>
       </c>
-      <c r="G59" s="1" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 15 mins\n\n\nServings:\n16 \n\n\nYield:\n8 cups"}]</t>
         </is>
       </c>
-      <c r="H59" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pint cherry tomatoes, quartered\n\n\n1 (15 ounce) can black-eyed peas, drained\n\n\n1 (15 ounce) can black beans, drained\n\n\n1 (8 ounce) bottle zesty Italian dressing\n\n\n1  green bell pepper, chopped\n\n\n½  onion, chopped\n\n\n1 bunch green onions, chopped\n\n\n2  jalapeno peppers, chopped\n\n\n1 tablespoon minced garlic\n\n\n½ teaspoon ground coriander\n\n\n1 bunch chopped fresh cilantro, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I59" s="1" t="inlineStr">
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pint cherry tomatoes, quartered\n\n\n1 (15 ounce) can black-eyed peas, drained\n\n\n1 (15 ounce) can black beans, drained\n\n\n1 (8 ounce) bottle zesty Italian dressing\n\n\n1  green bell pepper, chopped\n\n\n½  onion, chopped\n\n\n1 bunch green onions, chopped\n\n\n2  jalapeno peppers, chopped\n\n\n1 tablespoon minced garlic\n\n\n½ teaspoon ground coriander\n\n\n1 bunch chopped fresh cilantro, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix together tomatoes, black-eyed peas, black beans, Italian dressing, bell pepper, onion, green onions, jalapeño peppers, garlic, and coriander in a large bowl. Cover and chill salad in the refrigerator for about 2 hours."},{"recipe_directions":"Toss salad with desired amount of cilantro to serve."}]</t>
         </is>
       </c>
-      <c r="J59" s="1" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"},{"recipe_tags":"Bean Dip Recipes"}]</t>
         </is>
       </c>
-      <c r="K59" s="1" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"107\nCalories\n\n\n5g \nFat\n\n\n12g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="1" t="inlineStr">
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>1699658766-59</t>
         </is>
       </c>
-      <c r="B60" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C60" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D60" s="1" t="inlineStr">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/XaBL-r0MHuF88XLsBd80rvQolZM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(499x0:501x2):format(webp)/4577553-a46106cf85c44818872e34ccf241fbda.jpg"
@@ -3924,59 +4037,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E60" s="1" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/261342/baked-banana-chips/</t>
         </is>
       </c>
-      <c r="F60" s="1" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>Baked Banana Chips</t>
         </is>
       </c>
-      <c r="G60" s="1" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n 2 hrs\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n 2 hrs 15 mins\n\n\nServings:\n2"}]</t>
         </is>
       </c>
-      <c r="H60" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2  just-ripe bananas, sliced in 1/10-inch-thick rounds, or more as needed\n\n\n1 teaspoon lemon juice, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I60" s="1" t="inlineStr">
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2  just-ripe bananas, sliced in 1/10-inch-thick rounds, or more as needed\n\n\n1 teaspoon lemon juice, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 225 degrees F (110 degrees C). Line a baking sheet with parchment paper."},{"recipe_directions":"Spread banana slices out onto the prepared baking sheet, making sure slices are not touching. Brush with lemon juice."},{"recipe_directions":"Bake in the preheated oven for 90 minutes. Check bananas, lifting slices up to separate from the paper once or twice. Continue baking until bananas are dried out, 30 to 90 minutes more."},{"recipe_directions":"Let bananas cool until crispy, at least 5 minutes."},{"recipe_directions":"If your bananas are too ripe, they'll be more difficult to slice. Slice into 1/4-centimeter slices if using metric units."},{"recipe_directions":"If bananas don't start to go crispy after 5 minutes of cooling time, pop them back in for another 15 minutes."}]</t>
         </is>
       </c>
-      <c r="J60" s="1" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Snacks"},{"recipe_tags":"Snack Chip Recipes"}]</t>
         </is>
       </c>
-      <c r="K60" s="1" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"106\nCalories\n\n\n0g \nFat\n\n\n27g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="1" t="inlineStr">
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>1699658773-60</t>
         </is>
       </c>
-      <c r="B61" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C61" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D61" s="1" t="inlineStr">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/cnQ7pub5RVU-4m83cvwSB3FV7Kw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/6406632-authentic-chinese-egg-rolls-from-a-chinese-person-moodtwofood-1x1-1-8c90562351aa4d94b56894bdd991e755.jpg"
@@ -3990,59 +4099,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E61" s="1" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/61913/authentic-chinese-egg-rolls-from-a-chinese-person/</t>
         </is>
       </c>
-      <c r="F61" s="1" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>Authentic Chinese Egg Rolls (from a Chinese person)</t>
         </is>
       </c>
-      <c r="G61" s="1" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n 1 hr\n\n\nCook Time:\n30 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 2 hrs 30 mins\n\n\nServings:\n20 \n\n\nYield:\n20 egg rolls"}]</t>
         </is>
       </c>
-      <c r="H61" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 teaspoons vegetable oil, divided\n\n\n3 large eggs, beaten\n\n\n1 medium head cabbage, finely shredded\n\n\n½  carrot, julienned\n\n\n1 pound Chinese barbequed or roasted pork, cut into matchsticks\n\n\n1 (8 ounce) can shredded bamboo shoots\n\n\n1 cup dried, shredded wood ear mushroom, rehydrated\n\n\n2  green onions, thinly sliced\n\n\n2 ½ teaspoons soy sauce\n\n\n1 teaspoon salt\n\n\n1 teaspoon sugar\n\n\n½ teaspoon monosodium glutamate (MSG)\n\n\n1 (14 ounce) package egg roll wrappers\n\n\n1  egg white, beaten\n\n\n4 cups oil for frying, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="I61" s="1" t="inlineStr">
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 teaspoons vegetable oil, divided\n\n\n3 large eggs, beaten\n\n\n1 medium head cabbage, finely shredded\n\n\n½  carrot, julienned\n\n\n1 pound Chinese barbequed or roasted pork, cut into matchsticks\n\n\n1 (8 ounce) can shredded bamboo shoots\n\n\n1 cup dried, shredded wood ear mushroom, rehydrated\n\n\n2  green onions, thinly sliced\n\n\n2 ½ teaspoons soy sauce\n\n\n1 teaspoon salt\n\n\n1 teaspoon sugar\n\n\n½ teaspoon monosodium glutamate (MSG)\n\n\n1 (14 ounce) package egg roll wrappers\n\n\n1  egg white, beaten\n\n\n4 cups oil for frying, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat 1 teaspoon vegetable oil in a wok or large skillet over medium heat. Pour in beaten eggs and cook, without stirring, until firmed up. Flip eggs over and cook for an additional 20 seconds to firm the other side. Set egg pancake aside to cool, then slice into thin strips."},{"recipe_directions":"Heat remaining vegetable oil in a wok or large skillet over high heat. Stir in cabbage and carrot; cook for 2 minutes to wilt. Add pork, bamboo shoots, mushroom, green onions, soy sauce, salt, sugar, and MSG; continue cooking until vegetables soften, about 6 minutes. Stir in sliced egg, then spread the mixture out onto a pan, and refrigerate until cold, about 1 hour."},{"recipe_directions":"To assemble the egg rolls: Place a wrapper onto your work surface with one corner pointing towards you. Place about 3 tablespoons of cooled filling in a heap onto the bottom third of the wrapper. Brush a little beaten egg white onto the top two edges of the wrapper, then fold the bottom corner over the filling and roll firmly to the halfway point. Fold the left and right sides snugly over the egg roll, then continue rolling until the top corners seal the egg roll with the egg white. Repeat with remaining egg roll wrappers, covering finished egg rolls with plastic wrap to keep from drying out."},{"recipe_directions":"Heat about 6 inches of oil in a wok or deep-fryer to 350 degrees F (175 degrees C)."},{"recipe_directions":"Fry egg rolls 3 or 4 at a time until golden brown, 5 to 7 minutes. Drain on paper towels."},{"recipe_directions":"We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. Amount will vary depending on cooking time and temperature, ingredient density, and specific type of oil used."}]</t>
         </is>
       </c>
-      <c r="J61" s="1" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Wraps and Rolls"},{"recipe_tags":"Egg Roll Recipes"}]</t>
         </is>
       </c>
-      <c r="K61" s="1" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"169\nCalories\n\n\n7g \nFat\n\n\n16g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="1" t="inlineStr">
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
           <t>1699658779-61</t>
         </is>
       </c>
-      <c r="B62" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
-        </is>
-      </c>
-      <c r="C62" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D62" s="1" t="inlineStr">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1319/healthy-recipes/appetizers/</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/3ygOl7cBKhUDwqKZ1YiqbjvBqzQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/48032-mango-salsa-DDMFS-4x3-9a85c88aa4784139bfed9c7119d6b278.jpg"
@@ -4056,42 +4161,43 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E62" s="1" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/48032/mango-salsa/</t>
         </is>
       </c>
-      <c r="F62" s="1" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>Mango Salsa</t>
         </is>
       </c>
-      <c r="G62" s="1" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H62" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  mango - peeled, seeded, and chopped\n\n\n¼ cup finely chopped red bell pepper\n\n\n1  green onion, chopped\n\n\n1 fresh jalapeño chile pepper, finely chopped\n\n\n2 tablespoons chopped cilantro\n\n\n2 tablespoons lime juice\n\n\n1 tablespoon lemon juice"}]</t>
-        </is>
-      </c>
-      <c r="I62" s="1" t="inlineStr">
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  mango - peeled, seeded, and chopped\n\n\n¼ cup finely chopped red bell pepper\n\n\n1  green onion, chopped\n\n\n1 fresh jalapeño chile pepper, finely chopped\n\n\n2 tablespoons chopped cilantro\n\n\n2 tablespoons lime juice\n\n\n1 tablespoon lemon juice'}]</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"This fresh and fruity mango salsa recipe will add a pop of color and flavor to any plate."},{"recipe_directions":"You'll find a detailed ingredient list and step-by-step instructions in the recipe below, but let's go over the basics:"},{"recipe_directions":"These are the ingredients you’ll need to make this fresh mango salsa recipe:"},{"recipe_directions":"Mix all the ingredients, then let sit for about half an hour to allow the flavors to meld. That’s it! You’ll find the full, step-by-step recipe with detailed instructions and photos below."},{"recipe_directions":"Pair this easy corn salsa with tortilla chips (store-bought or homemade) or use it as a sweet and savory topping for fish tacos or burrito bowls."},{"recipe_directions":"Yes! In fact, since the flavors meld over time, this mango salsa is actually better if you make it the day before you plan to serve it. However, it’s still delicious if you make the day of – just make sure you let it sit for about half an hour before serving."},{"recipe_directions":"Store your leftover mango salsa in a shallow, airtight container in the refrigerator for up to one week."},{"recipe_directions":"“So fresh and delicious,” according to Gennae Heer. “I added red onion instead of green onion, cherry tomatoes, and avocado. I will definitely make this again!”"},{"recipe_directions":"“This salsa is absolutely delicious,” raves erika-w. “I served it as a side dish to crab cakes and it was a perfect complement.”"},{"recipe_directions":"“This salsa was so quick and easy to make,” says Rita. “We used it over our grilled salmon and our guests loved it! We also served it with tortilla chips and it was a hit!”"},{"recipe_directions":"Editorial contributions by Corey Williams"},{"recipe_directions":"Gather ingredients."},{"recipe_directions":"Place mango, red bell pepper, green onion, jalapeño, cilantro, lime juice, and lemon juice in a medium bowl."},{"recipe_directions":"Mix ingredients well to combine. Cover and let sit at least 30 minutes before serving."},{"recipe_directions":"Serve with chips."}]</t>
         </is>
       </c>
-      <c r="J62" s="1" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"},{"recipe_tags":"Salsa Recipes"},{"recipe_tags":"Mango Salsa Recipes"}]</t>
         </is>
       </c>
-      <c r="K62" s="1" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"21\nCalories\n\n\n0g \nFat\n\n\n5g \nCarbs\n\n\n0g \nProtein"}]</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>